--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\temp-peyroll-form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD9AF67-8DFE-4C80-8019-3B85FF749431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0321AE-C27F-4E42-BC9C-84E36217DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>THIEN PHU MUT CO.,LTD</t>
   </si>
@@ -166,11 +166,6 @@
     <t>Thực Lãnh:(C)=(A)-(B)</t>
   </si>
   <si>
-    <t>Cảm ơn vì sự nỗ lực làm của Bạn trong thời gian qua 
-Lưu ý : Thông tin lương là thông tin liên quan đến cá nhân và bảo mật , đề nghị không chia sẽ , cung cấp cho người khác. 
-Mọi thắc mắc vui lòng liên hệ với Phòng Nhân sự hoặc Tổ Trưởng / Quản lý của Bạn. Các thông tin điều chỉnh , nếu có sẽ được thực hiện trong kỳ lương kế tiếp (tháng sau )</t>
-  </si>
-  <si>
     <t>Đoàn Nguyễn Minh Đăng</t>
   </si>
   <si>
@@ -178,6 +173,20 @@
   </si>
   <si>
     <t>01115</t>
+  </si>
+  <si>
+    <t>Mức lương tham gia BHXH</t>
+  </si>
+  <si>
+    <t>Cảm ơn vì sự nỗ lực làm việc của Bạn trong thời gian qua 
+Lưu ý : Thông tin lương là thông tin liên quan đến cá nhân và bảo mật , đề nghị không chia sẽ , cung cấp cho người khác. 
+Mọi thắc mắc vui lòng liên hệ với Phòng Nhân sự hoặc Tổ Trưởng / Quản lý của Bạn. Các thông tin điều chỉnh , nếu có sẽ được thực hiện trong kỳ lương kế tiếp (tháng sau )</t>
+  </si>
+  <si>
+    <t>Điểm PMS</t>
+  </si>
+  <si>
+    <t>Xếp loại PMS</t>
   </si>
 </sst>
 </file>
@@ -190,7 +199,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0&quot; ngày&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.0&quot; giờ&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,6 +299,20 @@
       <b/>
       <sz val="18"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -568,7 +591,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,82 +678,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,11 +711,89 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -799,7 +828,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>64861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18821,8 +18850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18842,46 +18871,46 @@
   <sheetData>
     <row r="1" spans="1:13" ht="29.6" x14ac:dyDescent="0.65">
       <c r="A1" s="1"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
       <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="29.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="22.3" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="64" t="str">
+      <c r="B3" s="40" t="str">
         <f>M1</f>
         <v>THÁNG 10/2025</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:13" ht="29.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -18898,47 +18927,53 @@
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>46</v>
+      <c r="C5" s="43" t="s">
+        <v>45</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="57" t="s">
-        <v>48</v>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
+        <v>47</v>
       </c>
-      <c r="I5" s="51"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="22.75" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>47</v>
+      <c r="C6" s="43" t="s">
+        <v>46</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="11">
+        <v>360000</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="22.75" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="49">
         <v>45667</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="11">
         <v>8000000</v>
       </c>
@@ -18950,15 +18985,15 @@
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="43">
         <v>6530734238</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="11">
         <v>10000000</v>
       </c>
@@ -18967,23 +19002,23 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="22.3" x14ac:dyDescent="0.35">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="48" t="str">
+      <c r="B10" s="32" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="13">
         <v>25</v>
       </c>
@@ -19005,11 +19040,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="48" t="str">
+      <c r="B11" s="32" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
@@ -19030,10 +19065,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,22,0),0)</f>
         <v>0</v>
@@ -19057,10 +19092,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="13">
         <v>2</v>
       </c>
@@ -19081,10 +19116,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,24,0),0)</f>
         <v>0</v>
@@ -19107,10 +19142,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,25,0),0)</f>
         <v>0</v>
@@ -19133,11 +19168,11 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="48" t="str">
+      <c r="B16" s="32" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,26,0),0)</f>
         <v>0</v>
@@ -19161,11 +19196,11 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="48" t="str">
+      <c r="B17" s="32" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,27,0),0)</f>
         <v>0</v>
@@ -19189,10 +19224,10 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,28,0),0)</f>
         <v>0</v>
@@ -19216,10 +19251,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,31,0),0)</f>
         <v>0</v>
@@ -19243,10 +19278,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="13">
         <v>2</v>
       </c>
@@ -19269,10 +19304,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="13">
         <v>1</v>
       </c>
@@ -19292,10 +19327,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="18"/>
       <c r="E22" s="14"/>
       <c r="F22" s="15" t="s">
@@ -19313,11 +19348,11 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="22.75" x14ac:dyDescent="0.35">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="20">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>9730769</v>
@@ -19330,10 +19365,10 @@
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="23" t="s">
         <v>36</v>
       </c>
@@ -19347,14 +19382,16 @@
       <c r="G24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
       <c r="I24" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="23" t="s">
         <v>38</v>
       </c>
@@ -19367,14 +19404,16 @@
       <c r="G25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
       <c r="I25" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="23" t="s">
         <v>40</v>
       </c>
@@ -19388,16 +19427,16 @@
       <c r="G26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="9">
-        <v>840000</v>
+      <c r="H26" s="14">
+        <v>0</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="23" t="s">
         <v>42</v>
       </c>
@@ -19408,36 +19447,40 @@
       <c r="F27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="69"/>
       <c r="I27" s="22"/>
     </row>
     <row r="28" spans="2:9" ht="22.75" x14ac:dyDescent="0.35">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="25">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
-        <v>880000</v>
+        <v>40000</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="G28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="70"/>
       <c r="I28" s="27"/>
     </row>
     <row r="29" spans="2:9" ht="22.3" x14ac:dyDescent="0.35">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="28">
         <f>+ROUND(E23-E28,0)</f>
-        <v>8850769</v>
+        <v>9690769</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>8</v>
@@ -19447,60 +19490,77 @@
       <c r="I29" s="27"/>
     </row>
     <row r="30" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B30" s="40" t="s">
-        <v>45</v>
+      <c r="B30" s="62" t="s">
+        <v>49</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="41"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="65"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
     </row>
     <row r="34" spans="2:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
     </row>
     <row r="35" spans="2:9" ht="14.15" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:I34"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -19515,23 +19575,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0321AE-C27F-4E42-BC9C-84E36217DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBD6728-7512-4019-9655-86E0EB6E34C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
+    <workbookView xWindow="-9690" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>THIEN PHU MUT CO.,LTD</t>
   </si>
@@ -166,12 +166,6 @@
     <t>Thực Lãnh:(C)=(A)-(B)</t>
   </si>
   <si>
-    <t>Đoàn Nguyễn Minh Đăng</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>01115</t>
   </si>
   <si>
@@ -188,16 +182,21 @@
   <si>
     <t>Xếp loại PMS</t>
   </si>
+  <si>
+    <t>Hệ số lương PMS</t>
+  </si>
+  <si>
+    <t>Lương hiệu suất PMS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0&quot; ngày&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0&quot; giờ&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0&quot; giờ&quot;"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -591,7 +590,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,9 +624,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -640,7 +636,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -664,9 +660,6 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -678,6 +671,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -789,12 +806,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -828,7 +839,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>64861</xdr:rowOff>
+      <xdr:rowOff>63047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18848,22 +18859,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.2109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.2109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="30" customWidth="1"/>
-    <col min="4" max="5" width="15.85546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="17.35546875" style="30" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="28" customWidth="1"/>
+    <col min="4" max="5" width="15.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="17.35546875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="28" customWidth="1"/>
     <col min="10" max="10" width="8" style="2"/>
     <col min="11" max="11" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8" style="2"/>
@@ -18871,46 +18882,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="29.6" x14ac:dyDescent="0.65">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
       <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="29.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="22.3" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="40" t="str">
-        <f>M1</f>
-        <v>THÁNG 10/2025</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="29.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -18927,36 +18935,30 @@
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="22.75" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="11">
-        <v>360000</v>
-      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="10" t="s">
         <v>8</v>
       </c>
@@ -18965,18 +18967,14 @@
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="49">
-        <v>45667</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="11">
-        <v>8000000</v>
-      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="10" t="s">
         <v>8</v>
       </c>
@@ -18985,570 +18983,543 @@
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="43">
-        <v>6530734238</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="11">
-        <v>10000000</v>
-      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="22.3" x14ac:dyDescent="0.35">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
     </row>
-    <row r="10" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="32" t="str">
+    <row r="10" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B10" s="38" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="13">
-        <v>25</v>
-      </c>
-      <c r="E10" s="14">
-        <v>7692308</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,53,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="32" t="str">
+    <row r="11" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B11" s="38" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14">
+      <c r="C11" s="39"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,54,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="54" t="s">
+    <row r="12" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="13">
-        <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,22,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="C12" s="61"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,44,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,56,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="32" t="s">
+    <row r="13" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B13" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14">
-        <v>115385</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="14">
-        <v>480769</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="32" t="s">
+    <row r="14" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="13">
-        <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,24,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="C14" s="39"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,46,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="14">
-        <v>961538</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="32" t="s">
+    <row r="15" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="13">
-        <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,25,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="C15" s="39"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,47,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="14">
-        <v>480769</v>
-      </c>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="32" t="str">
+    <row r="16" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B16" s="38" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="13">
-        <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,26,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="C16" s="39"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,48,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,66,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="32" t="str">
+    <row r="17" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B17" s="38" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="13">
-        <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,27,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="C17" s="39"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,49,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,67,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="32" t="s">
+    <row r="18" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B18" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="13">
-        <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,28,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="C18" s="39"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,50,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,68,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="32" t="s">
+    <row r="19" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="13">
-        <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,31,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="C19" s="39"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,51,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="53" t="s">
+    <row r="20" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B20" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="13">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="C20" s="53"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,58,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="53" t="s">
+    <row r="21" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B21" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15" t="s">
+      <c r="C22" s="53"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="22.75" x14ac:dyDescent="0.35">
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="20">
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="19">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
-        <v>9730769</v>
+        <v>0</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,72,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>0</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="23" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>40000</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="23" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,79,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>0</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="23" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,80,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="22"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="2:9" ht="22.75" x14ac:dyDescent="0.35">
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="25">
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="24">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="2:9" ht="22.75" x14ac:dyDescent="0.35">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="37"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
+      <c r="B30" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="26">
+        <f>+ROUND(E23-E28,0)</f>
+        <v>-40000</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="2:9" ht="22.3" x14ac:dyDescent="0.35">
-      <c r="B29" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="28">
-        <f>+ROUND(E23-E28,0)</f>
-        <v>9690769</v>
-      </c>
-      <c r="F29" s="29" t="s">
+      <c r="H30" s="13"/>
+      <c r="I30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B30" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="65"/>
+      <c r="B31" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="58"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="65"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="71"/>
     </row>
-    <row r="34" spans="2:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="68"/>
+    <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
     </row>
-    <row r="35" spans="2:9" ht="14.15" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="74"/>
+    </row>
+    <row r="36" spans="2:9" ht="14.15" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:C27"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:I34"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBD6728-7512-4019-9655-86E0EB6E34C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4901D3C-9467-4126-B4D1-95DFF0E033AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9690" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>THIEN PHU MUT CO.,LTD</t>
-  </si>
-  <si>
-    <t>THÁNG 10/2025</t>
   </si>
   <si>
     <t>PHIẾU LƯƠNG</t>
@@ -198,7 +195,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0&quot; giờ&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,92 +223,66 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="25"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
+      <sz val="25"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <i/>
-      <sz val="16"/>
+      <sz val="25"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="25"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="25"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -330,76 +301,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,88 +362,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,12 +384,113 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -567,18 +499,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -590,164 +522,150 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -755,22 +673,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -779,31 +712,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -838,8 +747,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63047</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>360073</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18861,677 +18770,661 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.2109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.2109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="28" customWidth="1"/>
-    <col min="4" max="5" width="15.85546875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="17.35546875" style="28" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.0703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="52.0703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.35546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="8" style="2"/>
     <col min="11" max="11" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-      <c r="M1" s="3" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="42"/>
     </row>
-    <row r="2" spans="1:13" ht="29.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="43" t="s">
+    <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="B5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" ht="22.3" x14ac:dyDescent="0.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-    </row>
-    <row r="4" spans="1:13" ht="29.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" ht="22.75" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="48"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="B6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="53"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="37"/>
     </row>
-    <row r="6" spans="1:13" ht="22.75" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="B7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="54" t="s">
-        <v>46</v>
+      <c r="C7" s="16"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>6</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="B8" s="51" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="22.75" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
-        <v>6</v>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="14" t="s">
+        <v>9</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="8" spans="1:13" ht="22.75" x14ac:dyDescent="0.35">
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52" t="s">
+    <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
+      <c r="B9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="53"/>
     </row>
-    <row r="9" spans="1:13" ht="22.3" x14ac:dyDescent="0.35">
-      <c r="B9" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-    </row>
-    <row r="10" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B10" s="38" t="str">
+    <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B10" s="54" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14" t="s">
-        <v>8</v>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>12</v>
+      <c r="G10" s="24" t="s">
+        <v>11</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,53,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>8</v>
+      <c r="I10" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B11" s="38" t="str">
+    <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B11" s="54" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="13">
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>8</v>
+      <c r="F11" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>13</v>
+      <c r="G11" s="24" t="s">
+        <v>12</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,54,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>8</v>
+      <c r="I11" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B12" s="60" t="s">
-        <v>14</v>
+    <row r="12" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B12" s="54" t="s">
+        <v>13</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="13">
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,44,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>8</v>
+      <c r="F12" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>15</v>
+      <c r="G12" s="24" t="s">
+        <v>14</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,56,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>8</v>
+      <c r="I12" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B13" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14" t="s">
-        <v>8</v>
+      <c r="H13" s="22"/>
+      <c r="I13" s="55" t="s">
+        <v>7</v>
       </c>
-      <c r="G13" s="15" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B14" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B14" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="13">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,46,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>8</v>
+      <c r="F14" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B15" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B15" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="13">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,47,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>8</v>
+      <c r="F15" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>21</v>
+      <c r="G15" s="24" t="s">
+        <v>20</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="16" t="s">
-        <v>8</v>
+      <c r="H15" s="22"/>
+      <c r="I15" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B16" s="38" t="str">
+    <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B16" s="54" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="13">
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,48,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>8</v>
+      <c r="F16" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>22</v>
+      <c r="G16" s="24" t="s">
+        <v>21</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,66,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>8</v>
+      <c r="I16" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B17" s="38" t="str">
+    <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B17" s="54" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="13">
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,49,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>8</v>
+      <c r="F17" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>23</v>
+      <c r="G17" s="24" t="s">
+        <v>22</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,67,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>8</v>
+      <c r="I17" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B18" s="38" t="s">
-        <v>24</v>
+    <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B18" s="54" t="s">
+        <v>23</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="13">
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,50,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>8</v>
+      <c r="F18" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>25</v>
+      <c r="G18" s="24" t="s">
+        <v>24</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,68,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>8</v>
+      <c r="I18" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B19" s="38" t="s">
-        <v>26</v>
+    <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B19" s="54" t="s">
+        <v>25</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="13">
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,51,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>8</v>
+      <c r="F19" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>27</v>
+      <c r="G19" s="24" t="s">
+        <v>26</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>8</v>
+      <c r="I19" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B20" s="59" t="s">
-        <v>28</v>
+    <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B20" s="56" t="s">
+        <v>27</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="13">
+      <c r="C20" s="14"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,58,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>8</v>
+      <c r="F20" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>29</v>
+      <c r="G20" s="24" t="s">
+        <v>28</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>8</v>
+      <c r="I20" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B21" s="59" t="s">
+    <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B21" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="13">
+      <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>8</v>
+      <c r="I21" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="22.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="59" t="s">
+    <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B22" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>8</v>
+      <c r="I22" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="22.75" x14ac:dyDescent="0.35">
-      <c r="B23" s="62" t="s">
-        <v>34</v>
+    <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="B23" s="52" t="s">
+        <v>33</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="19">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="27">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>8</v>
+      <c r="F23" s="28" t="s">
+        <v>7</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="21"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="57"/>
     </row>
-    <row r="24" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B24" s="64" t="s">
+    <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B24" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,72,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>8</v>
+      <c r="F24" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B25" s="52"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="13">
+      <c r="E25" s="22">
+        <v>40000</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="22">
         <v>0</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>8</v>
+      <c r="I25" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="23">
-        <v>40000</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="9" t="s">
+    <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B26" s="52"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,79,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>8</v>
+      <c r="F26" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="22">
+        <v>0</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B27" s="52"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,80,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>8</v>
+      <c r="F27" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>48</v>
+      <c r="G27" s="17" t="s">
+        <v>47</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="21"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="57"/>
     </row>
-    <row r="28" spans="2:9" ht="22.75" x14ac:dyDescent="0.35">
-      <c r="B28" s="66" t="s">
-        <v>43</v>
+    <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="B28" s="52" t="s">
+        <v>42</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="24">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="27">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>8</v>
+      <c r="F28" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="57"/>
+    </row>
+    <row r="29" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="B29" s="58"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="25"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="55"/>
     </row>
-    <row r="29" spans="2:9" ht="22.75" x14ac:dyDescent="0.35">
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="9" t="s">
-        <v>50</v>
+    <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="B30" s="59" t="s">
+        <v>43</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="2:9" ht="22.75" x14ac:dyDescent="0.5">
-      <c r="B30" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="26">
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
       </c>
-      <c r="F30" s="27" t="s">
-        <v>8</v>
+      <c r="F30" s="36" t="s">
+        <v>7</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>51</v>
+      <c r="G30" s="17" t="s">
+        <v>50</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="16" t="s">
-        <v>8</v>
+      <c r="H30" s="22"/>
+      <c r="I30" s="55" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="68" t="s">
-        <v>47</v>
+      <c r="B31" s="60" t="s">
+        <v>46</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="69"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="71"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="71"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
     </row>
-    <row r="35" spans="2:9" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="74"/>
+    <row r="35" spans="2:9" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="67"/>
     </row>
-    <row r="36" spans="2:9" ht="14.15" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:9" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -19546,6 +19439,23 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4901D3C-9467-4126-B4D1-95DFF0E033AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701D3C7D-56BE-4943-9ECB-BD31E3F98616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -522,7 +522,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,44 +534,11 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -584,9 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -615,16 +579,45 @@
     <xf numFmtId="10" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -637,58 +630,64 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,7 +699,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18770,7 +18769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -18792,357 +18791,355 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="42"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="1"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="46"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>44</v>
       </c>
       <c r="I5" s="48"/>
-      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="50" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="50" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="14" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="50" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="54" t="str">
+      <c r="B10" s="33" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,53,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="54" t="str">
+      <c r="B11" s="33" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22">
+      <c r="C11" s="34"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,54,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22">
+      <c r="C12" s="34"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,44,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,56,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="55" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22">
+      <c r="C14" s="34"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,46,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="55" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22">
+      <c r="C15" s="34"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,47,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="55" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="54" t="str">
+      <c r="B16" s="33" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22">
+      <c r="C16" s="34"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,48,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,66,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="54" t="str">
+      <c r="B17" s="33" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22">
+      <c r="C17" s="34"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,49,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,67,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22">
+      <c r="C18" s="34"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,50,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,68,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22">
+      <c r="C19" s="34"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,51,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19150,23 +19147,23 @@
       <c r="B20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22">
+      <c r="C20" s="47"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,58,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19174,20 +19171,20 @@
       <c r="B21" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19195,236 +19192,253 @@
       <c r="B22" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="27">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="15">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="57"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,72,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="11">
         <v>0</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="I24" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="52"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="24" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="11">
         <v>40000</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="55" t="s">
+      <c r="I25" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="52"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="24" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,79,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="11">
         <v>0</v>
       </c>
-      <c r="I26" s="55" t="s">
+      <c r="I26" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="52"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="24" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,80,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="57"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="27">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="15">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="57"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B29" s="58"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="17" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="55"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35">
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="22">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="55" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="61"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
     </row>
     <row r="35" spans="2:9" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="66"/>
     </row>
     <row r="36" spans="2:9" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -19439,23 +19453,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701D3C7D-56BE-4943-9ECB-BD31E3F98616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4D67B9-9896-4610-93DF-6D909F3C6EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -612,6 +612,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -654,9 +696,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -672,46 +711,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -18769,8 +18769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18779,10 +18779,10 @@
     <col min="2" max="2" width="19.2109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="26.0703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="52.0703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.35546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="8" style="2"/>
     <col min="11" max="11" width="8.5" style="2" bestFit="1" customWidth="1"/>
@@ -18791,41 +18791,41 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="1"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -18842,29 +18842,29 @@
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="47"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="7"/>
       <c r="I6" s="28" t="s">
         <v>7</v>
@@ -18874,13 +18874,13 @@
       <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="50" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="7"/>
       <c r="I7" s="28" t="s">
         <v>7</v>
@@ -18890,36 +18890,36 @@
       <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="47" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="7"/>
       <c r="I8" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="33" t="str">
+      <c r="B10" s="47" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12" t="s">
@@ -18937,11 +18937,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="33" t="str">
+      <c r="B11" s="47" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
@@ -18962,10 +18962,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,44,0),0)</f>
@@ -18986,10 +18986,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12" t="s">
@@ -19004,10 +19004,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,46,0),0)</f>
@@ -19025,10 +19025,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,47,0),0)</f>
@@ -19046,11 +19046,11 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="33" t="str">
+      <c r="B16" s="47" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,48,0),0)</f>
@@ -19071,11 +19071,11 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="33" t="str">
+      <c r="B17" s="47" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,49,0),0)</f>
@@ -19096,10 +19096,10 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,50,0),0)</f>
@@ -19120,10 +19120,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,51,0),0)</f>
@@ -19144,10 +19144,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,58,0),0)</f>
@@ -19168,10 +19168,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12" t="s">
@@ -19189,10 +19189,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="14"/>
       <c r="E22" s="11"/>
       <c r="F22" s="12" t="s">
@@ -19210,11 +19210,11 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="15">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -19227,10 +19227,10 @@
       <c r="I23" s="31"/>
     </row>
     <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="9" t="s">
         <v>35</v>
       </c>
@@ -19252,8 +19252,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="9" t="s">
         <v>37</v>
       </c>
@@ -19274,8 +19274,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="9" t="s">
         <v>39</v>
       </c>
@@ -19297,8 +19297,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
@@ -19316,11 +19316,11 @@
       <c r="I27" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="15">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -19347,11 +19347,11 @@
       <c r="I29" s="30"/>
     </row>
     <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="22">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -19368,77 +19368,60 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="60"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="38"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
     </row>
     <row r="35" spans="2:9" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
     </row>
     <row r="36" spans="2:9" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -19453,6 +19436,23 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4D67B9-9896-4610-93DF-6D909F3C6EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407012BF-34E9-495B-8065-D505A06E5B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Phụ cấp độc hại</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày công Nghỉ phép tang /kết hôn/TNLĐ </t>
   </si>
   <si>
     <t>Phụ cấp thâm niên</t>
@@ -184,6 +181,10 @@
   </si>
   <si>
     <t>Lương hiệu suất PMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày công Nghỉ phép tang
+kết hôn/TNLĐ </t>
   </si>
 </sst>
 </file>
@@ -522,7 +523,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,48 +613,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -696,6 +655,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -711,8 +673,50 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -18770,7 +18774,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18779,8 +18783,8 @@
     <col min="2" max="2" width="19.2109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="26.0703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.78515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="52.0703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="4" customWidth="1"/>
@@ -18791,41 +18795,41 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="1"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -18842,29 +18846,29 @@
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="46" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
-        <v>44</v>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
+        <v>43</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="46" t="s">
-        <v>45</v>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47" t="s">
+        <v>44</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="7"/>
       <c r="I6" s="28" t="s">
         <v>7</v>
@@ -18874,13 +18878,13 @@
       <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="63" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="7"/>
       <c r="I7" s="28" t="s">
         <v>7</v>
@@ -18890,36 +18894,36 @@
       <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="46" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="7"/>
       <c r="I8" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="66"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="47" t="str">
+      <c r="B10" s="33" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12" t="s">
@@ -18937,11 +18941,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="47" t="str">
+      <c r="B11" s="33" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
@@ -18961,11 +18965,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B12" s="47" t="s">
-        <v>13</v>
+    <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B12" s="67" t="s">
+        <v>50</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,44,0),0)</f>
@@ -18975,7 +18979,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,56,0),0)</f>
@@ -18986,17 +18990,17 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="47" t="s">
-        <v>15</v>
+      <c r="B13" s="33" t="s">
+        <v>14</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="30" t="s">
@@ -19004,10 +19008,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="47" t="s">
-        <v>17</v>
+      <c r="B14" s="33" t="s">
+        <v>16</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,46,0),0)</f>
@@ -19017,7 +19021,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="30" t="s">
@@ -19025,10 +19029,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="47" t="s">
-        <v>19</v>
+      <c r="B15" s="33" t="s">
+        <v>18</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,47,0),0)</f>
@@ -19038,7 +19042,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="30" t="s">
@@ -19046,11 +19050,11 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="47" t="str">
+      <c r="B16" s="33" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,48,0),0)</f>
@@ -19060,7 +19064,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,66,0),0)</f>
@@ -19071,11 +19075,11 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="47" t="str">
+      <c r="B17" s="33" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,49,0),0)</f>
@@ -19085,7 +19089,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,67,0),0)</f>
@@ -19096,10 +19100,10 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="47" t="s">
-        <v>23</v>
+      <c r="B18" s="33" t="s">
+        <v>22</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,50,0),0)</f>
@@ -19109,7 +19113,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,68,0),0)</f>
@@ -19120,10 +19124,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="47" t="s">
-        <v>25</v>
+      <c r="B19" s="33" t="s">
+        <v>24</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,51,0),0)</f>
@@ -19133,7 +19137,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
@@ -19144,10 +19148,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B20" s="45" t="s">
-        <v>27</v>
+      <c r="B20" s="56" t="s">
+        <v>26</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,58,0),0)</f>
@@ -19157,7 +19161,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
@@ -19168,17 +19172,17 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B21" s="45" t="s">
-        <v>29</v>
+      <c r="B21" s="56" t="s">
+        <v>28</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
@@ -19189,17 +19193,17 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B22" s="45" t="s">
-        <v>31</v>
+      <c r="B22" s="56" t="s">
+        <v>30</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="14"/>
       <c r="E22" s="11"/>
       <c r="F22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
@@ -19210,11 +19214,11 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="33" t="s">
-        <v>33</v>
+      <c r="B23" s="53" t="s">
+        <v>32</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="15">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -19227,12 +19231,12 @@
       <c r="I23" s="31"/>
     </row>
     <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="E24" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,72,0),0)</f>
@@ -19242,7 +19246,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="11">
         <v>0</v>
@@ -19252,10 +19256,10 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="11">
         <v>40000</v>
@@ -19264,7 +19268,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="11">
         <v>0</v>
@@ -19274,10 +19278,10 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,79,0),0)</f>
@@ -19287,7 +19291,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
@@ -19297,10 +19301,10 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,80,0),0)</f>
@@ -19310,17 +19314,17 @@
         <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="33" t="s">
-        <v>42</v>
+      <c r="B28" s="53" t="s">
+        <v>41</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="15">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -19329,7 +19333,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="31"/>
@@ -19341,17 +19345,17 @@
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
       <c r="G29" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="30"/>
     </row>
     <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="35" t="s">
-        <v>43</v>
+      <c r="B30" s="57" t="s">
+        <v>42</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="22">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -19360,7 +19364,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="30" t="s">
@@ -19368,60 +19372,77 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="37" t="s">
-        <v>46</v>
+      <c r="B31" s="59" t="s">
+        <v>45</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="38"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
     </row>
     <row r="35" spans="2:9" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="66"/>
     </row>
     <row r="36" spans="2:9" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -19436,23 +19457,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407012BF-34E9-495B-8065-D505A06E5B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135970EA-1091-4C43-AEFE-B5E4652FB8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -613,11 +613,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,9 +700,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -673,50 +715,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -18773,8 +18773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18795,41 +18795,41 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="1"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -18846,29 +18846,29 @@
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="47"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="7"/>
       <c r="I6" s="28" t="s">
         <v>7</v>
@@ -18878,13 +18878,13 @@
       <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="50" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="7"/>
       <c r="I7" s="28" t="s">
         <v>7</v>
@@ -18894,36 +18894,36 @@
       <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="47" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="7"/>
       <c r="I8" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="33" t="str">
+      <c r="B10" s="47" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12" t="s">
@@ -18941,11 +18941,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="33" t="str">
+      <c r="B11" s="47" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
@@ -18966,10 +18966,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,44,0),0)</f>
@@ -18990,10 +18990,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12" t="s">
@@ -19008,10 +19008,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,46,0),0)</f>
@@ -19029,10 +19029,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,47,0),0)</f>
@@ -19050,11 +19050,11 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="33" t="str">
+      <c r="B16" s="47" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,48,0),0)</f>
@@ -19075,11 +19075,11 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="33" t="str">
+      <c r="B17" s="47" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,49,0),0)</f>
@@ -19100,10 +19100,10 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,50,0),0)</f>
@@ -19124,10 +19124,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,51,0),0)</f>
@@ -19148,10 +19148,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,58,0),0)</f>
@@ -19172,10 +19172,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12" t="s">
@@ -19193,10 +19193,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="14"/>
       <c r="E22" s="11"/>
       <c r="F22" s="12" t="s">
@@ -19214,11 +19214,11 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="15">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -19231,10 +19231,10 @@
       <c r="I23" s="31"/>
     </row>
     <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="9" t="s">
         <v>34</v>
       </c>
@@ -19256,8 +19256,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="9" t="s">
         <v>36</v>
       </c>
@@ -19278,8 +19278,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="9" t="s">
         <v>38</v>
       </c>
@@ -19301,8 +19301,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="9" t="s">
         <v>40</v>
       </c>
@@ -19320,11 +19320,11 @@
       <c r="I27" s="31"/>
     </row>
     <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="15">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -19351,11 +19351,11 @@
       <c r="I29" s="30"/>
     </row>
     <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="22">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -19372,77 +19372,60 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="60"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="38"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
     </row>
     <row r="35" spans="2:9" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
     </row>
     <row r="36" spans="2:9" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -19457,6 +19440,23 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135970EA-1091-4C43-AEFE-B5E4652FB8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F49A6B-477D-4479-B7CC-BCC5461CAB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -302,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -516,6 +516,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -523,7 +605,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,9 +674,6 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -613,56 +692,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,7 +734,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,7 +749,67 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -18773,8 +18867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18795,43 +18889,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="1"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
     </row>
-    <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="31.3" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="24"/>
       <c r="C4" s="6"/>
@@ -18842,88 +18936,88 @@
       <c r="H4" s="6"/>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
+    <row r="5" spans="1:13" ht="31.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="46" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="70"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="46" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="64" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="65"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="46" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="47" t="str">
+      <c r="B10" s="32" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12" t="s">
@@ -18936,16 +19030,16 @@
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,53,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="47" t="str">
+      <c r="B11" s="32" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
@@ -18961,15 +19055,15 @@
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,54,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,44,0),0)</f>
@@ -18985,15 +19079,15 @@
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,56,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12" t="s">
@@ -19003,15 +19097,15 @@
         <v>15</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,46,0),0)</f>
@@ -19024,15 +19118,15 @@
         <v>17</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,47,0),0)</f>
@@ -19045,16 +19139,16 @@
         <v>19</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="47" t="str">
+      <c r="B16" s="32" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,48,0),0)</f>
@@ -19070,16 +19164,16 @@
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,66,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="47" t="str">
+      <c r="B17" s="32" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,49,0),0)</f>
@@ -19095,15 +19189,15 @@
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,67,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,50,0),0)</f>
@@ -19119,15 +19213,15 @@
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,68,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,51,0),0)</f>
@@ -19143,12 +19237,12 @@
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="54" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="46"/>
@@ -19167,12 +19261,12 @@
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="54" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="46"/>
@@ -19188,12 +19282,12 @@
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="46"/>
@@ -19209,16 +19303,16 @@
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="15">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -19228,13 +19322,13 @@
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="31"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="9" t="s">
         <v>34</v>
       </c>
@@ -19251,13 +19345,13 @@
       <c r="H24" s="11">
         <v>0</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="9" t="s">
         <v>36</v>
       </c>
@@ -19273,13 +19367,13 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="9" t="s">
         <v>38</v>
       </c>
@@ -19296,13 +19390,13 @@
       <c r="H26" s="11">
         <v>0</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="9" t="s">
         <v>40</v>
       </c>
@@ -19317,14 +19411,14 @@
         <v>46</v>
       </c>
       <c r="H27" s="17"/>
-      <c r="I27" s="31"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="15">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -19336,10 +19430,10 @@
         <v>47</v>
       </c>
       <c r="H28" s="17"/>
-      <c r="I28" s="31"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B29" s="32"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="19"/>
@@ -19348,14 +19442,14 @@
         <v>48</v>
       </c>
       <c r="H29" s="21"/>
-      <c r="I29" s="30"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="22">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -19367,65 +19461,82 @@
         <v>49</v>
       </c>
       <c r="H30" s="11"/>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="38"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="61"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="61"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="61"/>
     </row>
     <row r="35" spans="2:9" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" spans="2:9" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -19440,23 +19551,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F49A6B-477D-4479-B7CC-BCC5461CAB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B70B78-0917-433C-B58A-FEEF83BC0A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -692,6 +692,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -725,6 +728,18 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -735,6 +750,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,6 +797,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -789,27 +810,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -18867,8 +18867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18889,41 +18889,41 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="1"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="31.3" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -18937,32 +18937,32 @@
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="31.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="70"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="7"/>
       <c r="I6" s="27" t="s">
         <v>7</v>
@@ -18972,13 +18972,13 @@
       <c r="B7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="48" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="49"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="7"/>
       <c r="I7" s="27" t="s">
         <v>7</v>
@@ -18988,36 +18988,36 @@
       <c r="B8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="46" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="7"/>
       <c r="I8" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="32" t="str">
+      <c r="B10" s="33" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12" t="s">
@@ -19035,11 +19035,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="32" t="str">
+      <c r="B11" s="33" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
@@ -19060,10 +19060,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,44,0),0)</f>
@@ -19084,10 +19084,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12" t="s">
@@ -19102,10 +19102,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,46,0),0)</f>
@@ -19123,10 +19123,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,47,0),0)</f>
@@ -19144,11 +19144,11 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="32" t="str">
+      <c r="B16" s="33" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,48,0),0)</f>
@@ -19169,11 +19169,11 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="32" t="str">
+      <c r="B17" s="33" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,49,0),0)</f>
@@ -19194,10 +19194,10 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,50,0),0)</f>
@@ -19218,10 +19218,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,51,0),0)</f>
@@ -19242,10 +19242,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,58,0),0)</f>
@@ -19266,10 +19266,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12" t="s">
@@ -19287,10 +19287,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="14"/>
       <c r="E22" s="11"/>
       <c r="F22" s="12" t="s">
@@ -19308,11 +19308,11 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="15">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -19325,10 +19325,10 @@
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="9" t="s">
         <v>34</v>
       </c>
@@ -19350,8 +19350,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="9" t="s">
         <v>36</v>
       </c>
@@ -19372,8 +19372,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="9" t="s">
         <v>38</v>
       </c>
@@ -19395,8 +19395,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="9" t="s">
         <v>40</v>
       </c>
@@ -19414,11 +19414,11 @@
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="15">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -19445,11 +19445,11 @@
       <c r="I29" s="29"/>
     </row>
     <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="22">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -19466,56 +19466,56 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="59"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="65"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="60"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="61"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="68"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="60"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="61"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="68"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="60"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="61"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
     </row>
     <row r="35" spans="2:9" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="71"/>
     </row>
     <row r="36" spans="2:9" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B70B78-0917-433C-B58A-FEEF83BC0A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32275A9B-769E-433D-ACE3-8E6923EBF919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -302,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -394,37 +394,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color indexed="64"/>
@@ -475,17 +444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -517,34 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -556,13 +486,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -575,9 +536,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -590,11 +549,59 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,18 +612,12 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -662,82 +663,74 @@
     <xf numFmtId="10" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,7 +745,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,49 +760,46 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -18867,657 +18857,688 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.2109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.2109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.0703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.78515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="52.0703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8" style="2"/>
-    <col min="11" max="11" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8" style="2"/>
+    <col min="1" max="1" width="1.2109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.0703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.78515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="52.0703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1"/>
+    <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="M1" s="3"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
     </row>
-    <row r="4" spans="1:13" ht="31.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="25"/>
+    <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="1:13" ht="31.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="27" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="54" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="27" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="51" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="27" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="33" t="str">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,53,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="33" t="str">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11">
+      <c r="C11" s="32"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,54,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B12" s="61" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11">
+      <c r="C12" s="32"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,44,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$82,56,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="29" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11">
+      <c r="C14" s="32"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,46,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="29" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11">
+      <c r="C15" s="32"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,47,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="29" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="33" t="str">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11">
+      <c r="C16" s="32"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,48,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,66,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="33" t="str">
+    <row r="17" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11">
+      <c r="C17" s="32"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,49,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,67,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="33" t="s">
+    <row r="18" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11">
+      <c r="C18" s="32"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,50,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,68,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="33" t="s">
+    <row r="19" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11">
+      <c r="C19" s="32"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,51,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B20" s="60" t="s">
+    <row r="20" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A20" s="30"/>
+      <c r="B20" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11">
+      <c r="C20" s="47"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,58,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B21" s="60" t="s">
+    <row r="21" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A21" s="30"/>
+      <c r="B21" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B22" s="60" t="s">
+    <row r="22" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A22" s="30"/>
+      <c r="B22" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,69,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="57" t="s">
+    <row r="23" spans="1:9" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="15">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="30"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="57" t="s">
+    <row r="24" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A24" s="30"/>
+      <c r="B24" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,72,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <v>0</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="9" t="s">
+    <row r="25" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A25" s="30"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <v>40000</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="9" t="s">
+    <row r="26" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A26" s="30"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,79,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="9">
         <v>0</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="9" t="s">
+    <row r="27" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A27" s="30"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$178,80,0),0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="57" t="s">
+    <row r="28" spans="1:9" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
+      <c r="B28" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="15">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="30"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B29" s="31"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="8" t="s">
+    <row r="29" spans="1:9" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="29"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="62" t="s">
+    <row r="30" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A30" s="30"/>
+      <c r="B30" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="22">
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="29" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="64" t="s">
+    <row r="31" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A31" s="30"/>
+      <c r="B31" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="65"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
-    <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="68"/>
+    <row r="32" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A32" s="30"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
     </row>
-    <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="68"/>
+    <row r="33" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A33" s="30"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
-    <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="68"/>
+    <row r="34" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A34" s="30"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
-    <row r="35" spans="2:9" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="71"/>
+    <row r="35" spans="1:9" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="30"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="66"/>
     </row>
-    <row r="36" spans="2:9" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:9" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="B23:D23"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32275A9B-769E-433D-ACE3-8E6923EBF919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CEE27B-F6AC-4AF7-9A4C-9976C2958164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -694,11 +694,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,9 +784,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -760,46 +799,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -18857,8 +18857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18879,41 +18879,41 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A1" s="27"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="27"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
@@ -18931,30 +18931,30 @@
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="47"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="5"/>
       <c r="I6" s="21" t="s">
         <v>7</v>
@@ -18965,13 +18965,13 @@
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="50" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="5"/>
       <c r="I7" s="21" t="s">
         <v>7</v>
@@ -18982,13 +18982,13 @@
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="47" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="5"/>
       <c r="I8" s="21" t="s">
         <v>7</v>
@@ -18996,24 +18996,24 @@
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="30"/>
-      <c r="B10" s="31" t="str">
+      <c r="B10" s="44" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -19032,11 +19032,11 @@
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="30"/>
-      <c r="B11" s="31" t="str">
+      <c r="B11" s="44" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
@@ -19058,10 +19058,10 @@
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="30"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,44,0),0)</f>
@@ -19083,10 +19083,10 @@
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -19102,10 +19102,10 @@
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="30"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,46,0),0)</f>
@@ -19124,10 +19124,10 @@
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="30"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,47,0),0)</f>
@@ -19146,11 +19146,11 @@
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="30"/>
-      <c r="B16" s="31" t="str">
+      <c r="B16" s="44" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,48,0),0)</f>
@@ -19172,11 +19172,11 @@
     </row>
     <row r="17" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="30"/>
-      <c r="B17" s="31" t="str">
+      <c r="B17" s="44" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,49,0),0)</f>
@@ -19198,10 +19198,10 @@
     </row>
     <row r="18" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="30"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,50,0),0)</f>
@@ -19223,10 +19223,10 @@
     </row>
     <row r="19" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="30"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="32"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,51,0),0)</f>
@@ -19248,10 +19248,10 @@
     </row>
     <row r="20" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="30"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,58,0),0)</f>
@@ -19273,10 +19273,10 @@
     </row>
     <row r="21" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="30"/>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -19295,10 +19295,10 @@
     </row>
     <row r="22" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="30"/>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -19317,11 +19317,11 @@
     </row>
     <row r="23" spans="1:9" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="30"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -19335,10 +19335,10 @@
     </row>
     <row r="24" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="30"/>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -19361,8 +19361,8 @@
     </row>
     <row r="25" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="30"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -19384,8 +19384,8 @@
     </row>
     <row r="26" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="30"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -19408,8 +19408,8 @@
     </row>
     <row r="27" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="30"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -19428,11 +19428,11 @@
     </row>
     <row r="28" spans="1:9" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -19461,11 +19461,11 @@
     </row>
     <row r="30" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="30"/>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -19483,81 +19483,64 @@
     </row>
     <row r="31" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="30"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
     </row>
     <row r="33" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="30"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="37"/>
     </row>
     <row r="34" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="30"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
     </row>
     <row r="35" spans="1:9" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="30"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41"/>
     </row>
     <row r="36" spans="1:9" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -19572,6 +19555,23 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CEE27B-F6AC-4AF7-9A4C-9976C2958164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB639DA-DA7E-43EE-8D2C-D897A00E73D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -302,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -605,6 +605,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -612,7 +621,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -694,6 +703,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -706,7 +720,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -18855,10 +18869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18879,41 +18893,44 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A1" s="27"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="31"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="27"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
@@ -18925,95 +18942,101 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="29"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57" t="s">
+      <c r="G5" s="62"/>
+      <c r="H5" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="5"/>
       <c r="I6" s="21" t="s">
         <v>7</v>
       </c>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A7" s="30"/>
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="63" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="5"/>
       <c r="I7" s="21" t="s">
         <v>7</v>
       </c>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A8" s="30"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="43" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="5"/>
       <c r="I8" s="21" t="s">
         <v>7</v>
       </c>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="66"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="30"/>
-      <c r="B10" s="44" t="str">
+      <c r="B10" s="49" t="str">
         <f>'[1]PL NEW'!B7:C7</f>
         <v>Ngày công làm việc</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -19029,14 +19052,15 @@
       <c r="I10" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="30"/>
-      <c r="B11" s="44" t="str">
+      <c r="B11" s="49" t="str">
         <f>'[1]PL NEW'!B8:C8</f>
         <v>Ngày lễ</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,43,0),0)</f>
@@ -19055,13 +19079,14 @@
       <c r="I11" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="30"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,44,0),0)</f>
@@ -19080,13 +19105,14 @@
       <c r="I12" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="30"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -19099,13 +19125,14 @@
       <c r="I13" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="30"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,46,0),0)</f>
@@ -19121,13 +19148,14 @@
       <c r="I14" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="30"/>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="45"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,47,0),0)</f>
@@ -19143,14 +19171,15 @@
       <c r="I15" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="30"/>
-      <c r="B16" s="44" t="str">
+      <c r="B16" s="49" t="str">
         <f>'[1]PL NEW'!B16</f>
         <v>Chuyên cần</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,48,0),0)</f>
@@ -19169,14 +19198,15 @@
       <c r="I16" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="30"/>
-      <c r="B17" s="44" t="str">
+      <c r="B17" s="49" t="str">
         <f>'[1]PL NEW'!B17</f>
         <v>Bù lương</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,49,0),0)</f>
@@ -19195,13 +19225,14 @@
       <c r="I17" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="30"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,50,0),0)</f>
@@ -19220,13 +19251,14 @@
       <c r="I18" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="30"/>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,51,0),0)</f>
@@ -19245,13 +19277,14 @@
       <c r="I19" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J19" s="31"/>
     </row>
-    <row r="20" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="30"/>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <f>IFERROR(VLOOKUP($C$5,'[2]Salary  OCT'!$B$5:$CE$182,58,0),0)</f>
@@ -19270,13 +19303,14 @@
       <c r="I20" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J20" s="31"/>
     </row>
-    <row r="21" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="30"/>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -19292,13 +19326,14 @@
       <c r="I21" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="30"/>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -19314,14 +19349,15 @@
       <c r="I22" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J22" s="31"/>
     </row>
-    <row r="23" spans="1:9" ht="31.3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -19332,13 +19368,14 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="24"/>
+      <c r="J23" s="31"/>
     </row>
-    <row r="24" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="30"/>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -19358,11 +19395,12 @@
       <c r="I24" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J24" s="31"/>
     </row>
-    <row r="25" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -19381,11 +19419,12 @@
       <c r="I25" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J25" s="31"/>
     </row>
-    <row r="26" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -19405,11 +19444,12 @@
       <c r="I26" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J26" s="31"/>
     </row>
-    <row r="27" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -19425,14 +19465,15 @@
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="24"/>
+      <c r="J27" s="31"/>
     </row>
-    <row r="28" spans="1:9" ht="31.3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -19445,8 +19486,9 @@
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="24"/>
+      <c r="J28" s="31"/>
     </row>
-    <row r="29" spans="1:9" ht="31.3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A29" s="30"/>
       <c r="B29" s="25"/>
       <c r="C29" s="16"/>
@@ -19458,14 +19500,15 @@
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="23"/>
+      <c r="J29" s="31"/>
     </row>
-    <row r="30" spans="1:9" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="30"/>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -19480,65 +19523,78 @@
       <c r="I30" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="J30" s="31"/>
     </row>
-    <row r="31" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="35" t="s">
+    <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="B31" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="31"/>
     </row>
-    <row r="32" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
+    <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="B32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="37"/>
+    <row r="33" spans="2:10" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="B33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="31"/>
     </row>
-    <row r="34" spans="1:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37"/>
+    <row r="34" spans="2:10" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="B34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="31"/>
     </row>
-    <row r="35" spans="1:9" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="30"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
+    <row r="35" spans="2:10" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="31"/>
     </row>
-    <row r="36" spans="1:9" ht="14.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:10" ht="14.6" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="B10:C10"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0325C17-AB10-4523-BECB-F8774B6D4684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3CB4FF-34DF-41BD-949E-4D7B21E72FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -483,7 +483,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -564,14 +564,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -582,66 +639,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -1040,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1062,43 +1063,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A1" s="30"/>
-      <c r="B1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="31"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="25"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
@@ -1118,17 +1119,17 @@
       <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
@@ -1136,13 +1137,13 @@
       <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="41" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="5"/>
       <c r="I6" s="27" t="s">
         <v>7</v>
@@ -1154,13 +1155,13 @@
       <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="57" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="5"/>
       <c r="I7" s="27" t="s">
         <v>7</v>
@@ -1172,13 +1173,13 @@
       <c r="B8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="41" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="5"/>
       <c r="I8" s="27" t="s">
         <v>7</v>
@@ -1187,24 +1188,24 @@
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="26"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="59"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="26"/>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1223,10 +1224,10 @@
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="26"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1247,10 +1248,10 @@
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="26"/>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1271,10 +1272,10 @@
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="26"/>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1291,10 +1292,10 @@
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="26"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1313,10 +1314,10 @@
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="26"/>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1335,10 +1336,10 @@
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="26"/>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1359,10 +1360,10 @@
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="26"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1383,10 +1384,10 @@
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="26"/>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="43"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1407,10 +1408,10 @@
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="26"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1431,10 +1432,10 @@
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="26"/>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1455,10 +1456,10 @@
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="26"/>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1477,10 +1478,10 @@
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="26"/>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="41"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1499,11 +1500,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1518,10 +1519,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="26"/>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1544,8 +1545,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="26"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1568,8 +1569,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="26"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1592,8 +1593,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="26"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1612,11 +1613,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1647,11 +1648,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="26"/>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="35"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1670,81 +1671,98 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="31"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="31"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="26"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="31"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="34"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -1759,23 +1777,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3CB4FF-34DF-41BD-949E-4D7B21E72FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7035670F-B5B0-4285-9B79-D73BDF32A581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -393,17 +393,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -483,7 +472,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -541,43 +530,43 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -585,10 +574,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -603,7 +589,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -643,6 +629,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -676,7 +671,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>360073</xdr:rowOff>
+      <xdr:rowOff>367847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1041,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1061,45 +1056,45 @@
     <col min="12" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.45" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
       <c r="A1" s="30"/>
-      <c r="B1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="31"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="25"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
@@ -1119,17 +1114,17 @@
       <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="45"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
@@ -1137,13 +1132,13 @@
       <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="5"/>
       <c r="I6" s="27" t="s">
         <v>7</v>
@@ -1155,13 +1150,13 @@
       <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="47" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="5"/>
       <c r="I7" s="27" t="s">
         <v>7</v>
@@ -1173,13 +1168,13 @@
       <c r="B8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="44" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="5"/>
       <c r="I8" s="27" t="s">
         <v>7</v>
@@ -1188,16 +1183,16 @@
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="26"/>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
@@ -1248,7 +1243,7 @@
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="26"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="33"/>
@@ -1432,10 +1427,10 @@
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="26"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1456,10 +1451,10 @@
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="26"/>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1478,10 +1473,10 @@
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="26"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1500,11 +1495,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1519,10 +1514,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="26"/>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1545,8 +1540,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="26"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1569,8 +1564,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="26"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1593,8 +1588,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="26"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1613,11 +1608,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1648,11 +1643,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="26"/>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="50"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1671,75 +1666,75 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
       <c r="J32" s="31"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
       <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="31"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="26"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
       <c r="J35" s="31"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="60"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="21"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7035670F-B5B0-4285-9B79-D73BDF32A581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840DA33E-4176-46AC-B478-890BDF91B111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -465,6 +465,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -472,7 +483,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -523,9 +534,6 @@
     <xf numFmtId="10" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -553,89 +561,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1057,150 +1076,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="30"/>
-      <c r="B1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="31"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="63"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="31"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="25"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="31"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="31"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="31"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="31"/>
+      <c r="I6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="47"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="31"/>
+      <c r="I7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="43" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="31"/>
+      <c r="I8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="31"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A10" s="26"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1212,17 +1231,17 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="31"/>
+      <c r="I10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A11" s="26"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1236,17 +1255,17 @@
       <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="31"/>
+      <c r="I11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="26"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1260,17 +1279,17 @@
       <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="31"/>
+      <c r="I12" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A13" s="26"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1280,17 +1299,17 @@
         <v>15</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="31"/>
+      <c r="I13" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A14" s="26"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1302,17 +1321,17 @@
         <v>17</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="31"/>
+      <c r="I14" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A15" s="26"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1324,17 +1343,17 @@
         <v>19</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="31"/>
+      <c r="I15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A16" s="26"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1348,17 +1367,17 @@
       <c r="H16" s="9">
         <v>0</v>
       </c>
-      <c r="I16" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="31"/>
+      <c r="I16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A17" s="26"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1372,17 +1391,17 @@
       <c r="H17" s="9">
         <v>0</v>
       </c>
-      <c r="I17" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="31"/>
+      <c r="I17" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A18" s="26"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1396,17 +1415,17 @@
       <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="31"/>
+      <c r="I18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A19" s="26"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1420,17 +1439,17 @@
       <c r="H19" s="9">
         <v>0</v>
       </c>
-      <c r="I19" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="31"/>
+      <c r="I19" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A20" s="26"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1444,17 +1463,17 @@
       <c r="H20" s="9">
         <v>0</v>
       </c>
-      <c r="I20" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="31"/>
+      <c r="I20" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A21" s="26"/>
-      <c r="B21" s="47" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1466,17 +1485,17 @@
       <c r="H21" s="9">
         <v>0</v>
       </c>
-      <c r="I21" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="31"/>
+      <c r="I21" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A22" s="26"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1488,18 +1507,18 @@
       <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="I22" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="31"/>
+      <c r="I22" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1509,15 +1528,15 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="31"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A24" s="26"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1533,15 +1552,15 @@
       <c r="H24" s="9">
         <v>0</v>
       </c>
-      <c r="I24" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="31"/>
+      <c r="I24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A25" s="26"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1557,15 +1576,15 @@
       <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="I25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="31"/>
+      <c r="I25" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A26" s="26"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1581,15 +1600,15 @@
       <c r="H26" s="9">
         <v>0</v>
       </c>
-      <c r="I26" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="31"/>
+      <c r="I26" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A27" s="26"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1603,16 +1622,16 @@
         <v>46</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="31"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1624,11 +1643,11 @@
         <v>47</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="31"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="29" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -1638,16 +1657,16 @@
         <v>48</v>
       </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="31"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="30"/>
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A30" s="26"/>
-      <c r="B30" s="53" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="49"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1659,105 +1678,88 @@
         <v>49</v>
       </c>
       <c r="H30" s="9"/>
-      <c r="I30" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="31"/>
+      <c r="I30" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="30"/>
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="31"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="31"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="31"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="31"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="31"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="30"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="59"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="35"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F37" s="21"/>
+      <c r="F37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -1772,6 +1774,23 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840DA33E-4176-46AC-B478-890BDF91B111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E23F75-522E-431F-AD86-30BB22E553E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -393,50 +393,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -483,7 +439,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -538,16 +494,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -557,23 +510,81 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -583,79 +594,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -682,15 +628,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>99721</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>185684</xdr:rowOff>
+      <xdr:rowOff>53500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>367847</xdr:rowOff>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>349367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -720,8 +666,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="257175" y="185684"/>
-          <a:ext cx="1304926" cy="928741"/>
+          <a:off x="193027" y="53500"/>
+          <a:ext cx="2015218" cy="1415540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1056,7 +1002,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1076,150 +1022,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="29"/>
-      <c r="B1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="63"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="35"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="59" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="58"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="24"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="58"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="30"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="30"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="42" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="30"/>
+      <c r="I6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="55" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="30"/>
+      <c r="I7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="42" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="30"/>
+      <c r="I8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="30"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A10" s="25"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1231,17 +1175,17 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="30"/>
+      <c r="I10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A11" s="25"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1255,17 +1199,17 @@
       <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="30"/>
+      <c r="I11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="25"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1279,17 +1223,17 @@
       <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="30"/>
+      <c r="I12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A13" s="25"/>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1299,17 +1243,17 @@
         <v>15</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="30"/>
+      <c r="I13" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A14" s="25"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1321,17 +1265,17 @@
         <v>17</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="30"/>
+      <c r="I14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A15" s="25"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1343,17 +1287,17 @@
         <v>19</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="30"/>
+      <c r="I15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A16" s="25"/>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1367,17 +1311,17 @@
       <c r="H16" s="9">
         <v>0</v>
       </c>
-      <c r="I16" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="30"/>
+      <c r="I16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A17" s="25"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1391,17 +1335,17 @@
       <c r="H17" s="9">
         <v>0</v>
       </c>
-      <c r="I17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="30"/>
+      <c r="I17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A18" s="25"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1415,17 +1359,17 @@
       <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="30"/>
+      <c r="I18" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A19" s="25"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1439,17 +1383,17 @@
       <c r="H19" s="9">
         <v>0</v>
       </c>
-      <c r="I19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="30"/>
+      <c r="I19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A20" s="25"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="42"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1463,17 +1407,17 @@
       <c r="H20" s="9">
         <v>0</v>
       </c>
-      <c r="I20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="30"/>
+      <c r="I20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A21" s="25"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1485,17 +1429,17 @@
       <c r="H21" s="9">
         <v>0</v>
       </c>
-      <c r="I21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="30"/>
+      <c r="I21" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A22" s="25"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="42"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1507,18 +1451,18 @@
       <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="I22" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="30"/>
+      <c r="I22" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1528,15 +1472,15 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="30"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A24" s="25"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1552,15 +1496,15 @@
       <c r="H24" s="9">
         <v>0</v>
       </c>
-      <c r="I24" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="30"/>
+      <c r="I24" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A25" s="25"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1576,15 +1520,15 @@
       <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="I25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="30"/>
+      <c r="I25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A26" s="25"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1600,15 +1544,15 @@
       <c r="H26" s="9">
         <v>0</v>
       </c>
-      <c r="I26" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="30"/>
+      <c r="I26" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A27" s="25"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1622,16 +1566,16 @@
         <v>46</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="30"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="36" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1643,11 +1587,11 @@
         <v>47</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="30"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -1657,16 +1601,16 @@
         <v>48</v>
       </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="30"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A30" s="25"/>
-      <c r="B30" s="38" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="36"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1678,88 +1622,105 @@
         <v>49</v>
       </c>
       <c r="H30" s="9"/>
-      <c r="I30" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="30"/>
+      <c r="I30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A31" s="25"/>
-      <c r="B31" s="39" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="30"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="30"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="30"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="30"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="25"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="30"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="33"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -1774,23 +1735,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E23F75-522E-431F-AD86-30BB22E553E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA769A-4E85-4D43-8F6E-AEDFF09D9982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -432,6 +432,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -439,7 +470,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -510,32 +541,40 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,51 +597,68 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -627,16 +683,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>99721</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>53500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>278558</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>653144</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>349367</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2293776</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>46122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -666,7 +722,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="193027" y="53500"/>
+          <a:off x="6467864" y="3692439"/>
           <a:ext cx="2015218" cy="1415540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1001,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1022,18 +1078,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="28"/>
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="30"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
@@ -1061,34 +1117,34 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="29"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="46"/>
       <c r="E5" s="47"/>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="29"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
@@ -1098,72 +1154,72 @@
       <c r="C6" s="45"/>
       <c r="D6" s="46"/>
       <c r="E6" s="47"/>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="5"/>
       <c r="I6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="29"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="46"/>
       <c r="E7" s="47"/>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="5"/>
       <c r="I7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A8" s="24"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="48" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="5"/>
       <c r="I8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="29"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="29"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="24"/>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1178,14 +1234,14 @@
       <c r="I10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="24"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1202,14 +1258,14 @@
       <c r="I11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="24"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1226,14 +1282,14 @@
       <c r="I12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="24"/>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1246,14 +1302,14 @@
       <c r="I13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="29"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="24"/>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1268,14 +1324,14 @@
       <c r="I14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="29"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="24"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1290,14 +1346,14 @@
       <c r="I15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="29"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="24"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1314,14 +1370,14 @@
       <c r="I16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="29"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="24"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1338,14 +1394,14 @@
       <c r="I17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="29"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="24"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1362,14 +1418,14 @@
       <c r="I18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="29"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="24"/>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1386,14 +1442,14 @@
       <c r="I19" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="29"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="24"/>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1410,14 +1466,14 @@
       <c r="I20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="29"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="24"/>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1432,14 +1488,14 @@
       <c r="I21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="29"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="24"/>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1454,15 +1510,15 @@
       <c r="I22" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="29"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1473,14 +1529,14 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="29"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="24"/>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1499,12 +1555,12 @@
       <c r="I24" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="29"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="24"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1523,12 +1579,12 @@
       <c r="I25" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="29"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="24"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1547,12 +1603,12 @@
       <c r="I26" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="29"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="24"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1567,15 +1623,15 @@
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="29"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1588,7 +1644,7 @@
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="29"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
@@ -1602,15 +1658,15 @@
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="26"/>
-      <c r="J29" s="29"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="24"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="53"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1625,102 +1681,93 @@
       <c r="I30" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="29"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="29"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="29"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="29"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="29"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="29"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="33"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="68"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="68"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
       <c r="F37" s="20"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -1735,6 +1782,23 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA769A-4E85-4D43-8F6E-AEDFF09D9982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9609DEAC-F055-4BC6-8C56-FEFCEB6E96DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -470,7 +470,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -552,6 +552,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -559,6 +571,33 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,6 +615,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,56 +657,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -683,16 +681,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>278558</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209010</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2293776</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>46122</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>699798</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>350296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -722,7 +720,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6467864" y="3692439"/>
+          <a:off x="239681" y="54429"/>
           <a:ext cx="2015218" cy="1415540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1057,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1078,48 +1076,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="54"/>
-      <c r="B1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="58"/>
       <c r="J1" s="30"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="23"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
@@ -1133,17 +1131,17 @@
       <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="37" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="37"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
@@ -1151,13 +1149,13 @@
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="37" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="5"/>
       <c r="I6" s="25" t="s">
         <v>7</v>
@@ -1169,13 +1167,13 @@
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="49" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="5"/>
       <c r="I7" s="25" t="s">
         <v>7</v>
@@ -1187,13 +1185,13 @@
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="37"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="5"/>
       <c r="I8" s="25" t="s">
         <v>7</v>
@@ -1202,24 +1200,24 @@
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="51"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="69"/>
       <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="24"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1238,10 +1236,10 @@
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="24"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1262,10 +1260,10 @@
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="24"/>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1286,10 +1284,10 @@
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="24"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1306,10 +1304,10 @@
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="24"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1328,10 +1326,10 @@
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="24"/>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1350,10 +1348,10 @@
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="24"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1374,10 +1372,10 @@
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="24"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1398,10 +1396,10 @@
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="24"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1422,10 +1420,10 @@
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="24"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1446,10 +1444,10 @@
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="24"/>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1470,10 +1468,10 @@
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="24"/>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1492,10 +1490,10 @@
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="24"/>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1514,11 +1512,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1533,10 +1531,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="24"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1559,8 +1557,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="24"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1583,8 +1581,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="24"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1607,8 +1605,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="24"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1627,11 +1625,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1662,11 +1660,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="24"/>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1685,86 +1683,78 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="61"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
       <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
       <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="55"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="68"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="68"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="31">

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9609DEAC-F055-4BC6-8C56-FEFCEB6E96DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B614498-B9DD-4409-90C6-399B4D279E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -545,7 +545,6 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -564,11 +563,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -600,63 +647,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1076,72 +1076,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="35"/>
-      <c r="B1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="30"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="69"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="23"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
-      <c r="I4" s="31"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="28"/>
+      <c r="K4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="52" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
@@ -1149,13 +1155,13 @@
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="52" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="5"/>
       <c r="I6" s="25" t="s">
         <v>7</v>
@@ -1167,13 +1173,13 @@
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="67" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="5"/>
       <c r="I7" s="25" t="s">
         <v>7</v>
@@ -1185,13 +1191,13 @@
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="52" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="52"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="5"/>
       <c r="I8" s="25" t="s">
         <v>7</v>
@@ -1200,24 +1206,24 @@
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="69"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="24"/>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1236,10 +1242,10 @@
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="24"/>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1263,7 +1269,7 @@
       <c r="B12" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1284,10 +1290,10 @@
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="24"/>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1304,10 +1310,10 @@
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="24"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1326,10 +1332,10 @@
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="24"/>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1348,10 +1354,10 @@
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="24"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1372,10 +1378,10 @@
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="24"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1396,10 +1402,10 @@
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="24"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1420,10 +1426,10 @@
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="24"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1444,10 +1450,10 @@
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="24"/>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1468,10 +1474,10 @@
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="24"/>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1490,10 +1496,10 @@
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="24"/>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1512,11 +1518,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1531,10 +1537,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="24"/>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="40"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1557,8 +1563,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="24"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1581,8 +1587,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="24"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1605,8 +1611,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="24"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1625,11 +1631,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1660,11 +1666,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="24"/>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="39"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1683,81 +1689,98 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
       <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
       <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -1772,23 +1795,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B614498-B9DD-4409-90C6-399B4D279E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FC486-9B4E-4871-89B3-0FA436F3F9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -563,24 +563,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -589,9 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -599,64 +644,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -1077,47 +1079,44 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
       <c r="A1" s="34"/>
-      <c r="B1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
       <c r="J1" s="28"/>
-      <c r="K1" s="69"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="23"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
@@ -1130,24 +1129,23 @@
       <c r="H4" s="29"/>
       <c r="I4" s="30"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
       <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
@@ -1155,13 +1153,13 @@
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="47"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="5"/>
       <c r="I6" s="25" t="s">
         <v>7</v>
@@ -1173,10 +1171,10 @@
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="49" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="64" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="50"/>
@@ -1191,13 +1189,13 @@
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="5"/>
       <c r="I8" s="25" t="s">
         <v>7</v>
@@ -1206,24 +1204,24 @@
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="24"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1242,10 +1240,10 @@
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="24"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1266,10 +1264,10 @@
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="24"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1290,10 +1288,10 @@
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="24"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1310,10 +1308,10 @@
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="24"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1332,10 +1330,10 @@
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="24"/>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1354,10 +1352,10 @@
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="24"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1378,10 +1376,10 @@
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="24"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1402,10 +1400,10 @@
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="24"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1426,10 +1424,10 @@
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="24"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1453,7 +1451,7 @@
       <c r="B20" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1477,7 +1475,7 @@
       <c r="B21" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1499,7 +1497,7 @@
       <c r="B22" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1518,11 +1516,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1537,10 +1535,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="24"/>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1563,8 +1561,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="24"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1587,8 +1585,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="24"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1611,8 +1609,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="24"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1631,11 +1629,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1666,11 +1664,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="24"/>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="52"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1689,64 +1687,64 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
       <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
       <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="65"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
       <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
@@ -1764,23 +1762,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:I35"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -1795,6 +1776,23 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FC486-9B4E-4871-89B3-0FA436F3F9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FCD5C0-6E9E-45B4-9569-03459A6D1513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -463,6 +463,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -470,7 +483,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -542,23 +555,11 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -629,6 +630,12 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -650,13 +657,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,16 +711,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>146375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29742</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>311020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>699798</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>350296</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>186613</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -722,7 +750,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="239681" y="54429"/>
+          <a:off x="17268048" y="4191000"/>
           <a:ext cx="2015218" cy="1415540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1078,74 +1106,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="34"/>
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="28"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="28"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="23"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="51" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="51"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
@@ -1153,13 +1182,13 @@
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="51" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="51"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="5"/>
       <c r="I6" s="25" t="s">
         <v>7</v>
@@ -1171,13 +1200,13 @@
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="64" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="5"/>
       <c r="I7" s="25" t="s">
         <v>7</v>
@@ -1189,13 +1218,13 @@
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="51" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="5"/>
       <c r="I8" s="25" t="s">
         <v>7</v>
@@ -1204,24 +1233,24 @@
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="66"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="24"/>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1240,10 +1269,10 @@
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="24"/>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1264,10 +1293,10 @@
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="24"/>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1288,10 +1317,10 @@
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="24"/>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1308,10 +1337,10 @@
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="24"/>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1330,10 +1359,10 @@
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="24"/>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1352,10 +1381,10 @@
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="24"/>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1376,10 +1405,10 @@
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="24"/>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1400,10 +1429,10 @@
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="24"/>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1424,10 +1453,10 @@
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="24"/>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1448,10 +1477,10 @@
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="24"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1472,10 +1501,10 @@
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="24"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1494,10 +1523,10 @@
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="24"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1516,11 +1545,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1535,10 +1564,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="24"/>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1561,8 +1590,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="24"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1585,8 +1614,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="24"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1609,8 +1638,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="24"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1629,11 +1658,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1664,11 +1693,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="24"/>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="38"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1687,75 +1716,75 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
       <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
       <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
       <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="46"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="20"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FCD5C0-6E9E-45B4-9569-03459A6D1513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691110E9-4168-4EDC-ADD3-07BC9D5CDC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -463,19 +463,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -483,7 +470,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -541,9 +528,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -555,11 +539,14 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -615,27 +602,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -657,34 +629,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1106,133 +1055,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="74"/>
-      <c r="B1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="75" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="72"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="23"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="71"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="70"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="28"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="47" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="47"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="28"/>
+      <c r="I6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="62" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="57" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="28"/>
+      <c r="I7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="47" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="47"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="28"/>
+      <c r="I8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
@@ -1242,11 +1194,11 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="28"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="48" t="s">
         <v>51</v>
       </c>
@@ -1262,13 +1214,13 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="28"/>
+      <c r="I10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="48" t="s">
         <v>52</v>
       </c>
@@ -1286,13 +1238,13 @@
       <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="28"/>
+      <c r="I11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="50" t="s">
         <v>50</v>
       </c>
@@ -1310,13 +1262,13 @@
       <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="28"/>
+      <c r="I12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="48" t="s">
         <v>14</v>
       </c>
@@ -1330,13 +1282,13 @@
         <v>15</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="28"/>
+      <c r="I13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="48" t="s">
         <v>16</v>
       </c>
@@ -1352,13 +1304,13 @@
         <v>17</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="28"/>
+      <c r="I14" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="48" t="s">
         <v>18</v>
       </c>
@@ -1374,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="28"/>
+      <c r="I15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="48" t="s">
         <v>53</v>
       </c>
@@ -1398,13 +1350,13 @@
       <c r="H16" s="9">
         <v>0</v>
       </c>
-      <c r="I16" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="28"/>
+      <c r="I16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="48" t="s">
         <v>54</v>
       </c>
@@ -1422,13 +1374,13 @@
       <c r="H17" s="9">
         <v>0</v>
       </c>
-      <c r="I17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="28"/>
+      <c r="I17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="48" t="s">
         <v>22</v>
       </c>
@@ -1446,13 +1398,13 @@
       <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="28"/>
+      <c r="I18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="48" t="s">
         <v>24</v>
       </c>
@@ -1470,13 +1422,13 @@
       <c r="H19" s="9">
         <v>0</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="28"/>
+      <c r="I19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A20" s="24"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="46" t="s">
         <v>26</v>
       </c>
@@ -1494,13 +1446,13 @@
       <c r="H20" s="9">
         <v>0</v>
       </c>
-      <c r="I20" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="28"/>
+      <c r="I20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="46" t="s">
         <v>28</v>
       </c>
@@ -1516,13 +1468,13 @@
       <c r="H21" s="9">
         <v>0</v>
       </c>
-      <c r="I21" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="28"/>
+      <c r="I21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="46" t="s">
         <v>30</v>
       </c>
@@ -1538,13 +1490,13 @@
       <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="I22" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="28"/>
+      <c r="I22" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="34" t="s">
         <v>32</v>
       </c>
@@ -1559,11 +1511,11 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="34" t="s">
         <v>33</v>
       </c>
@@ -1583,13 +1535,13 @@
       <c r="H24" s="9">
         <v>0</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="28"/>
+      <c r="I24" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="7" t="s">
@@ -1607,13 +1559,13 @@
       <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="28"/>
+      <c r="I25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="34"/>
       <c r="C26" s="35"/>
       <c r="D26" s="7" t="s">
@@ -1631,13 +1583,13 @@
       <c r="H26" s="9">
         <v>0</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="28"/>
+      <c r="I26" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="34"/>
       <c r="C27" s="35"/>
       <c r="D27" s="7" t="s">
@@ -1653,11 +1605,11 @@
         <v>46</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="28"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A28" s="24"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="34" t="s">
         <v>41</v>
       </c>
@@ -1674,11 +1626,11 @@
         <v>47</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="28"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -1688,11 +1640,11 @@
         <v>48</v>
       </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="28"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A30" s="24"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="36" t="s">
         <v>42</v>
       </c>
@@ -1709,13 +1661,13 @@
         <v>49</v>
       </c>
       <c r="H30" s="9"/>
-      <c r="I30" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="28"/>
+      <c r="I30" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="37" t="s">
         <v>45</v>
       </c>
@@ -1726,10 +1678,10 @@
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="28"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="40"/>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
@@ -1738,10 +1690,10 @@
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
       <c r="I32" s="42"/>
-      <c r="J32" s="28"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="40"/>
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
@@ -1750,10 +1702,10 @@
       <c r="G33" s="41"/>
       <c r="H33" s="41"/>
       <c r="I33" s="42"/>
-      <c r="J33" s="28"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="40"/>
       <c r="C34" s="41"/>
       <c r="D34" s="41"/>
@@ -1762,10 +1714,10 @@
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="42"/>
-      <c r="J34" s="28"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -1774,7 +1726,7 @@
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
       <c r="I35" s="45"/>
-      <c r="J35" s="28"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B36" s="31"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691110E9-4168-4EDC-ADD3-07BC9D5CDC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD1215E-6376-4470-A9D0-86142F02637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -463,6 +463,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -470,7 +494,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -545,9 +569,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -629,13 +650,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -1055,51 +1108,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="30"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="65"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="62"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1109,40 +1162,41 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
       <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="47" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="27"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="47" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="27"/>
@@ -1152,13 +1206,13 @@
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="57" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="5"/>
       <c r="I7" s="24" t="s">
         <v>7</v>
@@ -1170,13 +1224,13 @@
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="47" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="5"/>
       <c r="I8" s="24" t="s">
         <v>7</v>
@@ -1185,24 +1239,24 @@
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="59"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="23"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1221,10 +1275,10 @@
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="23"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1245,10 +1299,10 @@
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="23"/>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1269,10 +1323,10 @@
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="23"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1289,10 +1343,10 @@
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="23"/>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1311,10 +1365,10 @@
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="23"/>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1333,10 +1387,10 @@
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="23"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1357,10 +1411,10 @@
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="23"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1381,10 +1435,10 @@
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="23"/>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1405,10 +1459,10 @@
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="23"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1429,10 +1483,10 @@
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="23"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1453,10 +1507,10 @@
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="23"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1475,10 +1529,10 @@
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="23"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1497,11 +1551,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1516,10 +1570,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="23"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1542,8 +1596,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="23"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1566,8 +1620,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="23"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1590,8 +1644,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="23"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1610,11 +1664,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1645,11 +1699,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="23"/>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1668,75 +1722,75 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="20"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD1215E-6376-4470-A9D0-86142F02637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA16E84A-625E-4D3C-8AB4-C7518C08904A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -664,6 +664,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,17 +679,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -1109,18 +1107,18 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
       <c r="A1" s="72"/>
-      <c r="B1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="B1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="59"/>
-      <c r="K1" s="65"/>
+      <c r="K1" s="66"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
@@ -1135,8 +1133,8 @@
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="65"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="73"/>
@@ -1148,11 +1146,12 @@
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="65"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="67"/>
     </row>
     <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="74"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1161,11 +1160,11 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="65"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
@@ -1175,17 +1174,18 @@
       <c r="F5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="46" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="46"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="66"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="71" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="61"/>
@@ -1195,11 +1195,11 @@
         <v>44</v>
       </c>
       <c r="G6" s="64"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="27"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="74"/>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
@@ -1217,7 +1217,7 @@
       <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="27"/>
+      <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
@@ -1235,7 +1235,7 @@
       <c r="I8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA16E84A-625E-4D3C-8AB4-C7518C08904A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8F8B1-D144-4961-829D-1857E6CE994D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -487,6 +487,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -494,7 +551,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -563,12 +620,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -629,9 +680,6 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -650,8 +698,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -687,6 +737,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -720,7 +782,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>186613</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>148131</xdr:rowOff>
+      <xdr:rowOff>148132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1106,157 +1168,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="72"/>
-      <c r="B1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="66"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="63"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="66"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="73"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="67"/>
-    </row>
-    <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="73"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="64"/>
+    </row>
+    <row r="4" spans="1:13" ht="31.3" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="70"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="46" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="73"/>
+      <c r="H5" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="74"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="56" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="45"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="5"/>
       <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="74"/>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="46" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="5"/>
       <c r="I8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="60"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="58"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="23"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1275,10 +1337,10 @@
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="23"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1299,10 +1361,10 @@
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="23"/>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1323,10 +1385,10 @@
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="23"/>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1343,10 +1405,10 @@
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="23"/>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1365,10 +1427,10 @@
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="23"/>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1387,10 +1449,10 @@
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="23"/>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1411,10 +1473,10 @@
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="23"/>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1435,10 +1497,10 @@
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="23"/>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1459,10 +1521,10 @@
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="23"/>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1483,10 +1545,10 @@
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="23"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1507,10 +1569,10 @@
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="23"/>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1529,10 +1591,10 @@
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="23"/>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1551,11 +1613,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1570,10 +1632,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="23"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1596,8 +1658,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="23"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1682,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="23"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1644,8 +1706,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="23"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1664,11 +1726,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1699,11 +1761,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="23"/>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1722,75 +1784,75 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39"/>
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="42"/>
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="20"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8F8B1-D144-4961-829D-1857E6CE994D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DE9699-3CD3-433F-9D65-B4250A275BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -487,63 +487,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -551,7 +494,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -620,6 +563,15 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -677,9 +629,18 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -699,9 +660,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -716,10 +674,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -735,20 +697,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -782,7 +734,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>186613</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>148132</xdr:rowOff>
+      <xdr:rowOff>148131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1168,157 +1120,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="69"/>
-      <c r="B1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="63"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="70"/>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="63"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="70"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="64"/>
-    </row>
-    <row r="4" spans="1:13" ht="31.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="70"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="63"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="70"/>
+    </row>
+    <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
+      <c r="A4" s="78"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="61" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="71"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="53" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="43"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="5"/>
       <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="71"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="44" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="5"/>
       <c r="I8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="56"/>
+      <c r="J8" s="62"/>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="55"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="23"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1337,10 +1289,10 @@
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="23"/>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1361,10 +1313,10 @@
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="23"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1385,10 +1337,10 @@
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="23"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1405,10 +1357,10 @@
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="23"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1427,10 +1379,10 @@
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="23"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1449,10 +1401,10 @@
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="23"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1473,10 +1425,10 @@
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="23"/>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1497,10 +1449,10 @@
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="23"/>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1521,10 +1473,10 @@
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="23"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1545,10 +1497,10 @@
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="23"/>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1569,10 +1521,10 @@
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="23"/>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1591,10 +1543,10 @@
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="23"/>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1613,11 +1565,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1632,10 +1584,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="23"/>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1658,8 +1610,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="23"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1682,8 +1634,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="23"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1706,8 +1658,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="23"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1726,11 +1678,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1761,11 +1713,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="23"/>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1784,75 +1736,75 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
       <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
       <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="20"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DE9699-3CD3-433F-9D65-B4250A275BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E67C5B0-5339-428B-8433-AE2D7827CE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -487,6 +487,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -494,7 +574,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -563,15 +643,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -629,18 +700,9 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -660,6 +722,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -676,12 +741,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -691,16 +750,49 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -734,7 +826,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>186613</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>148131</xdr:rowOff>
+      <xdr:rowOff>148132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1100,7 +1192,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1120,157 +1212,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="76"/>
-      <c r="B1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="77"/>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="77"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="70"/>
-    </row>
-    <row r="4" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="78"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="65"/>
+    </row>
+    <row r="4" spans="1:13" ht="31.3" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="74"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="47" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="70"/>
+      <c r="H5" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="79"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="59" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="5"/>
       <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="79"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="47" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="5"/>
       <c r="I8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="62"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="61"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="23"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1289,10 +1381,10 @@
     </row>
     <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="23"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1313,10 +1405,10 @@
     </row>
     <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="23"/>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1337,10 +1429,10 @@
     </row>
     <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="23"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1357,10 +1449,10 @@
     </row>
     <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="23"/>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1379,10 +1471,10 @@
     </row>
     <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="23"/>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1401,10 +1493,10 @@
     </row>
     <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="23"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1425,10 +1517,10 @@
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="23"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1449,10 +1541,10 @@
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="23"/>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1473,10 +1565,10 @@
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="23"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1497,10 +1589,10 @@
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="23"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1521,10 +1613,10 @@
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="23"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1543,10 +1635,10 @@
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="23"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1565,11 +1657,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1584,10 +1676,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="23"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1610,8 +1702,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="23"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1634,8 +1726,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="23"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1658,8 +1750,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="23"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1678,11 +1770,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1713,11 +1805,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="23"/>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1736,75 +1828,75 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39"/>
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="42"/>
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="20"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E67C5B0-5339-428B-8433-AE2D7827CE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7005D-B807-48C4-BC10-8B314974F8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -487,86 +487,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,7 +494,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -643,6 +563,15 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -697,12 +626,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -721,10 +668,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -738,9 +683,9 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -750,49 +695,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -826,7 +739,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>186613</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>148132</xdr:rowOff>
+      <xdr:rowOff>148131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1189,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1211,158 +1124,164 @@
     <col min="12" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="73"/>
-      <c r="B1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.6">
+      <c r="A1" s="78"/>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="72"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="78" t="s">
+    <row r="2" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
+      <c r="A2" s="79"/>
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="1:13" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="72"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="65"/>
-    </row>
-    <row r="4" spans="1:13" ht="31.3" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="74"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="57" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" ht="30.9" x14ac:dyDescent="0.7">
+      <c r="A3" s="79"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+    </row>
+    <row r="4" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
+      <c r="A4" s="80"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="A5" s="71"/>
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="59"/>
       <c r="E5" s="60"/>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="61" t="s">
+      <c r="G5" s="62"/>
+      <c r="H5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-    </row>
-    <row r="6" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="I5" s="47"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="73"/>
+    </row>
+    <row r="6" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="69"/>
-    </row>
-    <row r="7" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="G6" s="70"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="81"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="53" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="43"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="5"/>
       <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:13" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="J7" s="81"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="44" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="5"/>
       <c r="I8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="56"/>
-    </row>
-    <row r="9" spans="1:13" ht="30.9" x14ac:dyDescent="0.35">
+      <c r="J8" s="66"/>
+      <c r="K8" s="74"/>
+    </row>
+    <row r="9" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="55"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="23"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1379,12 +1298,12 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="23"/>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1403,12 +1322,12 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:13" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:15" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="23"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1427,12 +1346,12 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="23"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1447,12 +1366,12 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="23"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1469,12 +1388,12 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="23"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1491,12 +1410,12 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:13" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="23"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1517,10 +1436,10 @@
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="23"/>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1541,10 +1460,10 @@
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="23"/>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1565,10 +1484,10 @@
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="23"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1589,10 +1508,10 @@
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="23"/>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1613,10 +1532,10 @@
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="23"/>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1635,10 +1554,10 @@
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="23"/>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1657,11 +1576,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1676,10 +1595,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="23"/>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1702,8 +1621,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="23"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1726,8 +1645,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="23"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1750,8 +1669,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="23"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1770,11 +1689,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1805,11 +1724,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="23"/>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1828,75 +1747,75 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
       <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
       <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="20"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7005D-B807-48C4-BC10-8B314974F8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCE2195-2B9E-467F-9A82-8FA79BA11A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -494,7 +494,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -668,7 +668,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -695,9 +694,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,6 +702,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D1F30DF8-7A31-49BB-B857-5A87BAA0A11C}"/>
@@ -1105,7 +1104,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1125,7 +1124,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="78"/>
+      <c r="A1" s="81"/>
       <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
@@ -1136,12 +1135,12 @@
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
       <c r="I1" s="53"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="72"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
@@ -1152,11 +1151,11 @@
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
       <c r="I2" s="55"/>
-      <c r="J2" s="81"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:15" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
@@ -1165,12 +1164,12 @@
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="57"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="80"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1179,11 +1178,11 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="29"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="72"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="71"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
@@ -1198,30 +1197,30 @@
         <v>43</v>
       </c>
       <c r="I5" s="47"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="73"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
     </row>
     <row r="6" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="81"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="79"/>
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
@@ -1240,7 +1239,7 @@
       <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="81"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
@@ -1259,8 +1258,8 @@
       <c r="I8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="74"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCE2195-2B9E-467F-9A82-8FA79BA11A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2EC21E-5D22-4BD1-9601-0C7F5D1EA967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -494,7 +494,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -563,12 +563,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -641,12 +635,6 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -669,6 +657,15 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -685,6 +682,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -729,16 +738,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>29742</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>311020</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>37518</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>186613</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>148131</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590941</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>303643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -768,7 +777,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17268048" y="4191000"/>
+          <a:off x="130824" y="7776"/>
           <a:ext cx="2015218" cy="1415540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1104,7 +1113,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1124,103 +1133,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="81"/>
-      <c r="B1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="77"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="79"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:15" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="77"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="72"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="78"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="71"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="47" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="79"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="82"/>
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
@@ -1228,18 +1237,18 @@
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="62" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="5"/>
       <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="79"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
@@ -1247,40 +1256,40 @@
       <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="47" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="5"/>
       <c r="I8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="73"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="72"/>
     </row>
     <row r="9" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="64"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A10" s="23"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1299,10 +1308,10 @@
     </row>
     <row r="11" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A11" s="23"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1323,10 +1332,10 @@
     </row>
     <row r="12" spans="1:15" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="23"/>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1347,10 +1356,10 @@
     </row>
     <row r="13" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A13" s="23"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1367,10 +1376,10 @@
     </row>
     <row r="14" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A14" s="23"/>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1389,10 +1398,10 @@
     </row>
     <row r="15" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A15" s="23"/>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1411,10 +1420,10 @@
     </row>
     <row r="16" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A16" s="23"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1435,10 +1444,10 @@
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A17" s="23"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1459,10 +1468,10 @@
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A18" s="23"/>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1483,10 +1492,10 @@
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A19" s="23"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1507,10 +1516,10 @@
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A20" s="23"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1531,10 +1540,10 @@
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A21" s="23"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1553,10 +1562,10 @@
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A22" s="23"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1575,11 +1584,11 @@
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1594,10 +1603,10 @@
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A24" s="23"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1620,8 +1629,8 @@
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A25" s="23"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1644,8 +1653,8 @@
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A26" s="23"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1668,8 +1677,8 @@
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A27" s="23"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1688,11 +1697,11 @@
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1723,11 +1732,11 @@
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
       <c r="A30" s="23"/>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1746,75 +1755,75 @@
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
       <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
       <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="40"/>
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="20"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2EC21E-5D22-4BD1-9601-0C7F5D1EA967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F4C628-7E5C-4831-B77A-29D849968D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -393,26 +393,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -477,14 +457,256 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -546,97 +768,35 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -653,66 +813,146 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -739,15 +979,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>37518</xdr:colOff>
+      <xdr:colOff>84173</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7776</xdr:rowOff>
+      <xdr:rowOff>225488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>590941</xdr:colOff>
+      <xdr:colOff>295472</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>303643</xdr:rowOff>
+      <xdr:rowOff>281037</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -777,8 +1017,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="130824" y="7776"/>
-          <a:ext cx="2015218" cy="1415540"/>
+          <a:off x="177479" y="225488"/>
+          <a:ext cx="1673094" cy="1175222"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1110,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1132,164 +1372,182 @@
     <col min="12" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="84"/>
-      <c r="B1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.6">
+      <c r="A1" s="44"/>
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="80"/>
-      <c r="B2" s="76" t="s">
+    <row r="2" spans="1:17" ht="30.9" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="80"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="71"/>
-    </row>
-    <row r="4" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="81"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="70"/>
-    </row>
-    <row r="5" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="69"/>
-      <c r="B5" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="1:17" ht="30.9" x14ac:dyDescent="0.7">
+      <c r="A3" s="43"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="1:17" ht="31.3" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="45"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+    </row>
+    <row r="5" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="A5" s="42"/>
+      <c r="B5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="45" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="83"/>
+      <c r="H5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="71"/>
-    </row>
-    <row r="6" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="79" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+    </row>
+    <row r="6" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="A6" s="40"/>
+      <c r="B6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="21" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="A7" s="40"/>
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="58" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22" t="s">
+      <c r="I7" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="A8" s="40"/>
+      <c r="B8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="45" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="72"/>
-    </row>
-    <row r="9" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="32" t="s">
+      <c r="I8" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+    </row>
+    <row r="9" spans="1:17" ht="30.9" x14ac:dyDescent="0.35">
+      <c r="A9" s="40"/>
+      <c r="B9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A10" s="23"/>
-      <c r="B10" s="46" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A10" s="40"/>
+      <c r="B10" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1301,17 +1559,17 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A11" s="23"/>
-      <c r="B11" s="46" t="s">
+      <c r="I10" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A11" s="40"/>
+      <c r="B11" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1325,17 +1583,17 @@
       <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="27"/>
-    </row>
-    <row r="12" spans="1:15" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="23"/>
-      <c r="B12" s="48" t="s">
+      <c r="I11" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:17" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A12" s="40"/>
+      <c r="B12" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1349,17 +1607,17 @@
       <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="27"/>
-    </row>
-    <row r="13" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A13" s="23"/>
-      <c r="B13" s="46" t="s">
+      <c r="I12" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A13" s="40"/>
+      <c r="B13" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="47"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1369,17 +1627,17 @@
         <v>15</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="14" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A14" s="23"/>
-      <c r="B14" s="46" t="s">
+      <c r="I13" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A14" s="40"/>
+      <c r="B14" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1391,17 +1649,17 @@
         <v>17</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="27"/>
-    </row>
-    <row r="15" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A15" s="23"/>
-      <c r="B15" s="46" t="s">
+      <c r="I14" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A15" s="40"/>
+      <c r="B15" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1413,17 +1671,17 @@
         <v>19</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="27"/>
-    </row>
-    <row r="16" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A16" s="23"/>
-      <c r="B16" s="46" t="s">
+      <c r="I15" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+      <c r="A16" s="40"/>
+      <c r="B16" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1437,17 +1695,17 @@
       <c r="H16" s="9">
         <v>0</v>
       </c>
-      <c r="I16" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="27"/>
+      <c r="I16" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A17" s="23"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1461,17 +1719,17 @@
       <c r="H17" s="9">
         <v>0</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="27"/>
+      <c r="I17" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A18" s="23"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1485,17 +1743,17 @@
       <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="27"/>
+      <c r="I18" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A19" s="23"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1509,17 +1767,17 @@
       <c r="H19" s="9">
         <v>0</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="27"/>
+      <c r="I19" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A20" s="23"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1533,17 +1791,17 @@
       <c r="H20" s="9">
         <v>0</v>
       </c>
-      <c r="I20" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="27"/>
+      <c r="I20" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A21" s="23"/>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1555,17 +1813,17 @@
       <c r="H21" s="9">
         <v>0</v>
       </c>
-      <c r="I21" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="27"/>
+      <c r="I21" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A22" s="23"/>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1577,18 +1835,18 @@
       <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="I22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="27"/>
+      <c r="I22" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1598,15 +1856,15 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A24" s="23"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1622,15 +1880,15 @@
       <c r="H24" s="9">
         <v>0</v>
       </c>
-      <c r="I24" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="27"/>
+      <c r="I24" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A25" s="23"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
@@ -1646,15 +1904,15 @@
       <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="I25" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="27"/>
+      <c r="I25" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A26" s="23"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1670,15 +1928,15 @@
       <c r="H26" s="9">
         <v>0</v>
       </c>
-      <c r="I26" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="27"/>
+      <c r="I26" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A27" s="23"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1692,16 +1950,16 @@
         <v>46</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1713,12 +1971,12 @@
         <v>47</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -1727,16 +1985,16 @@
         <v>48</v>
       </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="27"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A30" s="23"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1748,85 +2006,108 @@
         <v>49</v>
       </c>
       <c r="H30" s="9"/>
-      <c r="I30" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="27"/>
+      <c r="I30" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A31" s="23"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="27"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="27"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A33" s="23"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="27"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="27"/>
-    </row>
-    <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="27"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="40"/>
+    </row>
+    <row r="35" spans="1:10" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="40"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="40"/>
       <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="40"/>
+    </row>
+    <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="40"/>
+    </row>
+    <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="40"/>
+    </row>
+    <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="40"/>
+    </row>
+    <row r="42" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="40"/>
+    </row>
+    <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="40"/>
+    </row>
+    <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="31">

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0D3221-D6D7-44B2-AE55-ED49B27E1DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB47A78B-D72F-46D2-8437-8F03C0021DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -310,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -329,6 +329,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -362,6 +371,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -369,29 +473,24 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,71 +498,101 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -490,16 +619,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161928</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>279917</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457397</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>349896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1352939</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>385613</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396551</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>377838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -529,7 +658,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="255234" y="279917"/>
+          <a:off x="18302193" y="3833325"/>
           <a:ext cx="1191011" cy="836595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -865,7 +994,7 @@
   <dimension ref="A1:Q183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -886,16 +1015,16 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.6">
       <c r="A1" s="13"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -903,7 +1032,7 @@
     </row>
     <row r="2" spans="1:17" ht="30.9" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
@@ -912,35 +1041,35 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="30.9" x14ac:dyDescent="0.7">
       <c r="A3" s="12"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="31.3" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -950,22 +1079,22 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:17" ht="31.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -975,20 +1104,20 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:17" ht="31.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21" t="s">
+      <c r="G6" s="27"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="9"/>
@@ -1000,2079 +1129,2079 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="31.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="31.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
+      <c r="G8" s="27"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="30.9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="31.3" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:17" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A10" s="9"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="28" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="35">
         <v>0</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:17" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A11" s="9"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35">
         <v>0</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="28" t="s">
+      <c r="F11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="35">
         <v>0</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:17" ht="61.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A12" s="9"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35">
         <v>0</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="28" t="s">
+      <c r="F12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="35">
         <v>0</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:17" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A13" s="9"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="28" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27" t="s">
+      <c r="H13" s="35"/>
+      <c r="I13" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:17" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A14" s="9"/>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35">
         <v>0</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="28" t="s">
+      <c r="F14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:17" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A15" s="9"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35">
         <v>0</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="28" t="s">
+      <c r="F15" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:17" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A16" s="9"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35">
         <v>0</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="28" t="s">
+      <c r="F16" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="35">
         <v>0</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A17" s="9"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35">
         <v>0</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="28" t="s">
+      <c r="F17" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="35">
         <v>0</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A18" s="9"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26">
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35">
         <v>0</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="28" t="s">
+      <c r="F18" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="35">
         <v>0</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A19" s="9"/>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26">
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35">
         <v>0</v>
       </c>
-      <c r="F19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="28" t="s">
+      <c r="F19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="35">
         <v>0</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A20" s="9"/>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26">
+      <c r="C20" s="27"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35">
         <v>0</v>
       </c>
-      <c r="F20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="28" t="s">
+      <c r="F20" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="35">
         <v>0</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A21" s="9"/>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="30" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="35">
         <v>0</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A22" s="9"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="30" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="35">
         <v>0</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="32">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="41">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="F23" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A24" s="9"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="35">
         <v>0</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="23" t="s">
+      <c r="F24" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="35">
         <v>0</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A25" s="9"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="28" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="35">
         <v>40000</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="23" t="s">
+      <c r="F25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="35">
         <v>0</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A26" s="9"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="28" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="35">
         <v>0</v>
       </c>
-      <c r="F26" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="23" t="s">
+      <c r="F26" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="35">
         <v>0</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A27" s="9"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="28" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="35">
         <v>0</v>
       </c>
-      <c r="F27" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="23" t="s">
+      <c r="F27" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="23"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9"/>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="32">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="41">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
       </c>
-      <c r="F28" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="23" t="s">
+      <c r="F28" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="23" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="27"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:10" ht="31.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A30" s="9"/>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="32">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="41">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="F30" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="176.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="9"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="9"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="9"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
     </row>
     <row r="50" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
     </row>
     <row r="51" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="9"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
     </row>
     <row r="53" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="9"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
     </row>
     <row r="54" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="9"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
     </row>
     <row r="55" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="9"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
     </row>
     <row r="57" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="9"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
     </row>
     <row r="58" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="9"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
     </row>
     <row r="59" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="9"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
     </row>
     <row r="60" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="9"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
     </row>
     <row r="61" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="9"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
     </row>
     <row r="62" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="9"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
     </row>
     <row r="63" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
     </row>
     <row r="64" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="9"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
     </row>
     <row r="65" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="9"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
     </row>
     <row r="66" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="9"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
     </row>
     <row r="67" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="9"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
     </row>
     <row r="68" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="9"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
     </row>
     <row r="69" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="9"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
     </row>
     <row r="70" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
     </row>
     <row r="71" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="9"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
     </row>
     <row r="72" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="9"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
     </row>
     <row r="73" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="9"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
     </row>
     <row r="74" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
     </row>
     <row r="75" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="9"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
     </row>
     <row r="76" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="9"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
     </row>
     <row r="77" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="9"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
     </row>
     <row r="78" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="9"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
     </row>
     <row r="79" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="9"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
     </row>
     <row r="80" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="9"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
     </row>
     <row r="81" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="9"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
     </row>
     <row r="82" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="9"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
     </row>
     <row r="83" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="9"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
     </row>
     <row r="84" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="9"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
     </row>
     <row r="85" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="9"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
     </row>
     <row r="86" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="9"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
     </row>
     <row r="87" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="9"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
     </row>
     <row r="88" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="9"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
     </row>
     <row r="89" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="9"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
     </row>
     <row r="90" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="9"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
     </row>
     <row r="91" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="9"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
     </row>
     <row r="92" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="9"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
     </row>
     <row r="93" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="9"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
     </row>
     <row r="94" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
     </row>
     <row r="95" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
     </row>
     <row r="96" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
     </row>
     <row r="97" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="9"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
     </row>
     <row r="98" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="9"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
     </row>
     <row r="99" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="9"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
     </row>
     <row r="100" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="9"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
     </row>
     <row r="101" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="9"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
     </row>
     <row r="102" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="9"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
     </row>
     <row r="103" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="9"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
     </row>
     <row r="104" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="9"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
     </row>
     <row r="105" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="9"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
     </row>
     <row r="106" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="9"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
     </row>
     <row r="107" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="9"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
     </row>
     <row r="108" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="9"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
     </row>
     <row r="109" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="9"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
     </row>
     <row r="110" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="9"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
     </row>
     <row r="111" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="9"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
     </row>
     <row r="112" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="9"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
     </row>
     <row r="113" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="9"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
     </row>
     <row r="114" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="9"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
     </row>
     <row r="115" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="9"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
     </row>
     <row r="116" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="9"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
     </row>
     <row r="117" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="9"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
     </row>
     <row r="118" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="9"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
     </row>
     <row r="119" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="9"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
     </row>
     <row r="120" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="9"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
       <c r="F120" s="5"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
     </row>
     <row r="121" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="9"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
     </row>
     <row r="122" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="9"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
     </row>
     <row r="123" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="9"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
     </row>
     <row r="124" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="9"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
     </row>
     <row r="125" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="9"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
     </row>
     <row r="126" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="9"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
     </row>
     <row r="127" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="9"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
     </row>
     <row r="128" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="9"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
     </row>
     <row r="129" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="9"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
     </row>
     <row r="130" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="9"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="16"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
     </row>
     <row r="131" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="9"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
     </row>
     <row r="132" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="9"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
     </row>
     <row r="133" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="9"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
     </row>
     <row r="134" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="9"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
     </row>
     <row r="135" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="9"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
     </row>
     <row r="136" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="9"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
     </row>
     <row r="137" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="9"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
     </row>
     <row r="138" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="9"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="16"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
     </row>
     <row r="139" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="9"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
     </row>
     <row r="140" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="9"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="16"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24"/>
     </row>
     <row r="141" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="9"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
       <c r="F141" s="5"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="16"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
     </row>
     <row r="142" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="9"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="16"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="24"/>
     </row>
     <row r="143" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="9"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
     </row>
     <row r="144" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="9"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="24"/>
     </row>
     <row r="145" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="9"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="16"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
     </row>
     <row r="146" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="9"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="16"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="16"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
     </row>
     <row r="147" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="9"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="16"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24"/>
+      <c r="I147" s="24"/>
     </row>
     <row r="148" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="9"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
     </row>
     <row r="149" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="9"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
       <c r="F149" s="5"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="24"/>
     </row>
     <row r="150" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="9"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="16"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
     </row>
     <row r="151" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="9"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="16"/>
-      <c r="H151" s="16"/>
-      <c r="I151" s="16"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="24"/>
     </row>
     <row r="152" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="9"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="16"/>
-      <c r="H152" s="16"/>
-      <c r="I152" s="16"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="24"/>
+      <c r="I152" s="24"/>
     </row>
     <row r="153" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="9"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
-      <c r="I153" s="16"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
     </row>
     <row r="154" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="9"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="16"/>
-      <c r="H154" s="16"/>
-      <c r="I154" s="16"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="24"/>
     </row>
     <row r="155" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="9"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
-      <c r="I155" s="16"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="24"/>
     </row>
     <row r="156" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="9"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
       <c r="F156" s="5"/>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
-      <c r="I156" s="16"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="24"/>
     </row>
     <row r="157" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="9"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="16"/>
-      <c r="I157" s="16"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="24"/>
     </row>
     <row r="158" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="9"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="16"/>
-      <c r="H158" s="16"/>
-      <c r="I158" s="16"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="24"/>
     </row>
     <row r="159" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="9"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="16"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="16"/>
-      <c r="H159" s="16"/>
-      <c r="I159" s="16"/>
+      <c r="G159" s="24"/>
+      <c r="H159" s="24"/>
+      <c r="I159" s="24"/>
     </row>
     <row r="160" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="9"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="16"/>
-      <c r="I160" s="16"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
     </row>
     <row r="161" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="9"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="16"/>
-      <c r="I161" s="16"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
     </row>
     <row r="162" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="9"/>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
       <c r="F162" s="5"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="16"/>
-      <c r="I162" s="16"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="24"/>
+      <c r="I162" s="24"/>
     </row>
     <row r="163" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="9"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
       <c r="F163" s="5"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="16"/>
-      <c r="I163" s="16"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
     </row>
     <row r="164" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="9"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="16"/>
-      <c r="I164" s="16"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="24"/>
+      <c r="I164" s="24"/>
     </row>
     <row r="165" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="9"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="16"/>
-      <c r="H165" s="16"/>
-      <c r="I165" s="16"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
     </row>
     <row r="166" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="9"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="16"/>
-      <c r="H166" s="16"/>
-      <c r="I166" s="16"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="24"/>
     </row>
     <row r="167" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="9"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
       <c r="F167" s="5"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="16"/>
-      <c r="I167" s="16"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="24"/>
     </row>
     <row r="168" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="9"/>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
       <c r="F168" s="5"/>
-      <c r="G168" s="16"/>
-      <c r="H168" s="16"/>
-      <c r="I168" s="16"/>
+      <c r="G168" s="24"/>
+      <c r="H168" s="24"/>
+      <c r="I168" s="24"/>
     </row>
     <row r="169" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="9"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="16"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
       <c r="F169" s="5"/>
-      <c r="G169" s="16"/>
-      <c r="H169" s="16"/>
-      <c r="I169" s="16"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="24"/>
+      <c r="I169" s="24"/>
     </row>
     <row r="170" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="9"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
       <c r="F170" s="5"/>
-      <c r="G170" s="16"/>
-      <c r="H170" s="16"/>
-      <c r="I170" s="16"/>
+      <c r="G170" s="24"/>
+      <c r="H170" s="24"/>
+      <c r="I170" s="24"/>
     </row>
     <row r="171" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="9"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="24"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="16"/>
-      <c r="H171" s="16"/>
-      <c r="I171" s="16"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="24"/>
     </row>
     <row r="172" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="9"/>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="16"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
       <c r="F172" s="5"/>
-      <c r="G172" s="16"/>
-      <c r="H172" s="16"/>
-      <c r="I172" s="16"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
     </row>
     <row r="173" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="9"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="24"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="16"/>
-      <c r="H173" s="16"/>
-      <c r="I173" s="16"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="24"/>
+      <c r="I173" s="24"/>
     </row>
     <row r="174" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="9"/>
-      <c r="C174" s="16"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="16"/>
-      <c r="H174" s="16"/>
-      <c r="I174" s="16"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="24"/>
     </row>
     <row r="175" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="9"/>
-      <c r="C175" s="16"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="24"/>
       <c r="F175" s="5"/>
-      <c r="G175" s="16"/>
-      <c r="H175" s="16"/>
-      <c r="I175" s="16"/>
+      <c r="G175" s="24"/>
+      <c r="H175" s="24"/>
+      <c r="I175" s="24"/>
     </row>
     <row r="176" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="9"/>
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
       <c r="F176" s="5"/>
-      <c r="G176" s="16"/>
-      <c r="H176" s="16"/>
-      <c r="I176" s="16"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="24"/>
     </row>
     <row r="177" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="9"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="16"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="16"/>
-      <c r="H177" s="16"/>
-      <c r="I177" s="16"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="24"/>
     </row>
     <row r="178" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="9"/>
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="16"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="16"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="16"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="24"/>
+      <c r="I178" s="24"/>
     </row>
     <row r="179" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="9"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="16"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="16"/>
-      <c r="I179" s="16"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="24"/>
+      <c r="I179" s="24"/>
     </row>
     <row r="180" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="9"/>
-      <c r="C180" s="16"/>
-      <c r="D180" s="16"/>
-      <c r="E180" s="16"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="16"/>
-      <c r="H180" s="16"/>
-      <c r="I180" s="16"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="24"/>
+      <c r="I180" s="24"/>
     </row>
     <row r="181" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="9"/>
-      <c r="C181" s="16"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="16"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="24"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="16"/>
-      <c r="H181" s="16"/>
-      <c r="I181" s="16"/>
+      <c r="G181" s="24"/>
+      <c r="H181" s="24"/>
+      <c r="I181" s="24"/>
     </row>
     <row r="182" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="9"/>
-      <c r="C182" s="16"/>
-      <c r="D182" s="16"/>
-      <c r="E182" s="16"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="24"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="16"/>
-      <c r="H182" s="16"/>
-      <c r="I182" s="16"/>
+      <c r="G182" s="24"/>
+      <c r="H182" s="24"/>
+      <c r="I182" s="24"/>
     </row>
     <row r="183" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="9"/>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="16"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="16"/>
-      <c r="H183" s="16"/>
-      <c r="I183" s="16"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="24"/>
+      <c r="I183" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="31">

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820DF097-76DA-4995-BD32-D2491D7978DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45734EDD-01FD-4F9D-A426-B49E99DB96CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
-  <si>
-    <t>THIEN PHU MUT CO.,LTD</t>
-  </si>
-  <si>
-    <t>PHIẾU LƯƠNG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>Họ và Tên</t>
   </si>
@@ -193,6 +187,11 @@
   </si>
   <si>
     <t>Bù lương</t>
+  </si>
+  <si>
+    <t>THIEN PHU MUT CO.,LTD
+PHIẾU LƯƠNG
+THÁNG 01/2026</t>
   </si>
 </sst>
 </file>
@@ -420,7 +419,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -487,27 +486,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -518,12 +496,6 @@
     <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -533,6 +505,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -561,13 +551,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>123050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>116631</xdr:rowOff>
+      <xdr:rowOff>93305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>509870</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>295470</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1391817</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>253619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -597,8 +587,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="216356" y="116631"/>
-          <a:ext cx="1848615" cy="1298512"/>
+          <a:off x="216356" y="93305"/>
+          <a:ext cx="1268767" cy="891213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,7 +923,7 @@
   <dimension ref="A1:Q183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -952,55 +942,53 @@
     <col min="12" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.6">
-      <c r="A1" s="35"/>
-      <c r="B1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28"/>
+      <c r="B1" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="1:17" ht="30.9" x14ac:dyDescent="0.7">
-      <c r="A3" s="35"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+    <row r="2" spans="1:17" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:17" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:17" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1008,110 +996,110 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="24" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" s="24"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="24" t="s">
         <v>7</v>
-      </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="24" t="s">
-        <v>9</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:17" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -1120,34 +1108,34 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="34"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A10" s="34"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A11" s="34"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="8"/>
@@ -1155,23 +1143,23 @@
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:17" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="34"/>
-      <c r="B12" s="41" t="s">
-        <v>50</v>
+      <c r="A12" s="27"/>
+      <c r="B12" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="8"/>
@@ -1179,43 +1167,43 @@
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A13" s="34"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A14" s="34"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="8"/>
@@ -1223,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A15" s="34"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="8"/>
@@ -1245,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A16" s="34"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="8"/>
@@ -1267,23 +1255,23 @@
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A17" s="34"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="8"/>
@@ -1291,23 +1279,23 @@
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A18" s="34"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="8"/>
@@ -1315,23 +1303,23 @@
         <v>0</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A19" s="34"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="8"/>
@@ -1339,23 +1327,23 @@
         <v>0</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A20" s="34"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="8"/>
@@ -1363,67 +1351,67 @@
         <v>0</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A21" s="34"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H21" s="9">
         <v>0</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A22" s="34"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A23" s="34"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -1432,111 +1420,111 @@
         <v>0</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="34"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A24" s="34"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A25" s="34"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="9">
         <v>40000</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25" s="9">
         <v>0</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A26" s="34"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H26" s="9">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A27" s="34"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="9">
         <v>0</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="34"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A28" s="34"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -1545,33 +1533,33 @@
         <v>40000</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="34"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="13"/>
       <c r="F29" s="10"/>
       <c r="G29" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="34"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A30" s="34"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -1580,21 +1568,21 @@
         <v>-40000</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
-      <c r="B31" s="42" t="s">
-        <v>45</v>
+      <c r="A31" s="27"/>
+      <c r="B31" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -1603,10 +1591,10 @@
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="34"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -1615,10 +1603,10 @@
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="34"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A33" s="34"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -1627,10 +1615,10 @@
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="34"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A34" s="34"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -1639,10 +1627,10 @@
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="34"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -1651,1503 +1639,1500 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="34"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="34"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="34"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="34"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="17"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="34"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="34"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="34"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
     </row>
     <row r="51" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="34"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
       <c r="F51" s="17"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="34"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="34"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
     </row>
     <row r="54" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="34"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
     </row>
     <row r="55" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="34"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="34"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
     </row>
     <row r="57" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="34"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="34"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
     </row>
     <row r="59" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="34"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
     </row>
     <row r="60" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="34"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="34"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
     </row>
     <row r="62" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="34"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
     </row>
     <row r="63" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="34"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
     </row>
     <row r="64" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="34"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
       <c r="F64" s="17"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
     </row>
     <row r="65" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="34"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
       <c r="F65" s="17"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
     </row>
     <row r="66" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="34"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
     </row>
     <row r="67" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="34"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
     </row>
     <row r="68" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="34"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
     </row>
     <row r="69" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="34"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="34"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
     </row>
     <row r="71" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="34"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
     </row>
     <row r="72" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="34"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
     </row>
     <row r="73" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="34"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
       <c r="F73" s="17"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
     </row>
     <row r="74" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="34"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
       <c r="F74" s="17"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
     </row>
     <row r="75" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="34"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
       <c r="F75" s="17"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="34"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
       <c r="F76" s="17"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
     </row>
     <row r="77" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="34"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
       <c r="F77" s="17"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="34"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
       <c r="F78" s="17"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
     </row>
     <row r="79" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="34"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
     </row>
     <row r="80" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="34"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
       <c r="F80" s="17"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="34"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
       <c r="F81" s="17"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="34"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
       <c r="F82" s="17"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
     </row>
     <row r="83" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="34"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
       <c r="F83" s="17"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="84" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="34"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
       <c r="F84" s="17"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
     </row>
     <row r="85" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="34"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
       <c r="F85" s="17"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
     </row>
     <row r="86" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="34"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
       <c r="F86" s="17"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
     </row>
     <row r="87" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="34"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
       <c r="F87" s="17"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
     </row>
     <row r="88" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="34"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
       <c r="F88" s="17"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
     </row>
     <row r="89" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="34"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
       <c r="F89" s="17"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
     </row>
     <row r="90" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="34"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
       <c r="F90" s="17"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
     </row>
     <row r="91" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="34"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
       <c r="F91" s="17"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
     </row>
     <row r="92" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="34"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
       <c r="F92" s="17"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
     </row>
     <row r="93" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="34"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
       <c r="F93" s="17"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
     </row>
     <row r="94" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="34"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
       <c r="F94" s="17"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
     </row>
     <row r="95" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="34"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
       <c r="F95" s="17"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
     </row>
     <row r="96" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="34"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
       <c r="F96" s="17"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
     </row>
     <row r="97" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="34"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
       <c r="F97" s="17"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
     </row>
     <row r="98" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="34"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
       <c r="F98" s="17"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
     </row>
     <row r="99" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="34"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
       <c r="F99" s="17"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
     </row>
     <row r="100" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="34"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
       <c r="F100" s="17"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
     </row>
     <row r="101" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="34"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
       <c r="F101" s="17"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
     </row>
     <row r="102" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="34"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
       <c r="F102" s="17"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
     </row>
     <row r="103" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="34"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
       <c r="F103" s="17"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
     </row>
     <row r="104" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="34"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
       <c r="F104" s="17"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
     </row>
     <row r="105" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="34"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
       <c r="F105" s="17"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
     </row>
     <row r="106" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="34"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
       <c r="F106" s="17"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
     </row>
     <row r="107" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="34"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
       <c r="F107" s="17"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
     </row>
     <row r="108" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="34"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
       <c r="F108" s="17"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
     </row>
     <row r="109" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="34"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
       <c r="F109" s="17"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
     </row>
     <row r="110" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="34"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
       <c r="F110" s="17"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
     </row>
     <row r="111" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="34"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
       <c r="F111" s="17"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
     </row>
     <row r="112" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="34"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
       <c r="F112" s="17"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
     </row>
     <row r="113" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="34"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
       <c r="F113" s="17"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
     </row>
     <row r="114" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="34"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
       <c r="F114" s="17"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="39"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
     </row>
     <row r="115" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="34"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
       <c r="F115" s="17"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
     </row>
     <row r="116" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="34"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
       <c r="F116" s="17"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
     </row>
     <row r="117" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="34"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
       <c r="F117" s="17"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
     </row>
     <row r="118" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="34"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
       <c r="F118" s="17"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
     </row>
     <row r="119" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="34"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
       <c r="F119" s="17"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="39"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
     </row>
     <row r="120" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="34"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
       <c r="F120" s="17"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="39"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
     </row>
     <row r="121" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="34"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
       <c r="F121" s="17"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="39"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
     </row>
     <row r="122" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="34"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
       <c r="F122" s="17"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
     </row>
     <row r="123" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="34"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
       <c r="F123" s="17"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="39"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
     </row>
     <row r="124" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="34"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
       <c r="F124" s="17"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="39"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
     </row>
     <row r="125" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="34"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
       <c r="F125" s="17"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="39"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="30"/>
     </row>
     <row r="126" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="34"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
       <c r="F126" s="17"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="30"/>
     </row>
     <row r="127" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="34"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
       <c r="F127" s="17"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="39"/>
-      <c r="I127" s="39"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="30"/>
     </row>
     <row r="128" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="34"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="39"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
       <c r="F128" s="17"/>
-      <c r="G128" s="39"/>
-      <c r="H128" s="39"/>
-      <c r="I128" s="39"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="30"/>
     </row>
     <row r="129" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="34"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="39"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
       <c r="F129" s="17"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="39"/>
-      <c r="I129" s="39"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
     </row>
     <row r="130" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="34"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
       <c r="F130" s="17"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="39"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
     </row>
     <row r="131" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="34"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
       <c r="F131" s="17"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="30"/>
     </row>
     <row r="132" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="34"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
       <c r="F132" s="17"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
     </row>
     <row r="133" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="34"/>
-      <c r="C133" s="39"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
       <c r="F133" s="17"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="30"/>
     </row>
     <row r="134" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="34"/>
-      <c r="C134" s="39"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
       <c r="F134" s="17"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="39"/>
-      <c r="I134" s="39"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="30"/>
     </row>
     <row r="135" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="34"/>
-      <c r="C135" s="39"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
       <c r="F135" s="17"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="39"/>
-      <c r="I135" s="39"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30"/>
     </row>
     <row r="136" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="34"/>
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
       <c r="F136" s="17"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="39"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="30"/>
     </row>
     <row r="137" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="34"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
       <c r="F137" s="17"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="39"/>
-      <c r="I137" s="39"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="30"/>
     </row>
     <row r="138" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="34"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
       <c r="F138" s="17"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="39"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30"/>
     </row>
     <row r="139" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="34"/>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
       <c r="F139" s="17"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="39"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
     </row>
     <row r="140" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="34"/>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
       <c r="F140" s="17"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="39"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="30"/>
     </row>
     <row r="141" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="34"/>
-      <c r="C141" s="39"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
       <c r="F141" s="17"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="39"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="30"/>
     </row>
     <row r="142" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="34"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
       <c r="F142" s="17"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="39"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="30"/>
     </row>
     <row r="143" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="34"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
       <c r="F143" s="17"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="39"/>
-      <c r="I143" s="39"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="30"/>
     </row>
     <row r="144" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="34"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
       <c r="F144" s="17"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="39"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
+      <c r="I144" s="30"/>
     </row>
     <row r="145" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="34"/>
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
       <c r="F145" s="17"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="39"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
     </row>
     <row r="146" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="34"/>
-      <c r="C146" s="39"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
       <c r="F146" s="17"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="39"/>
-      <c r="I146" s="39"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="30"/>
     </row>
     <row r="147" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="34"/>
-      <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
       <c r="F147" s="17"/>
-      <c r="G147" s="39"/>
-      <c r="H147" s="39"/>
-      <c r="I147" s="39"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
     </row>
     <row r="148" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="34"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
       <c r="F148" s="17"/>
-      <c r="G148" s="39"/>
-      <c r="H148" s="39"/>
-      <c r="I148" s="39"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="30"/>
     </row>
     <row r="149" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="34"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
       <c r="F149" s="17"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="39"/>
-      <c r="I149" s="39"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
+      <c r="I149" s="30"/>
     </row>
     <row r="150" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="34"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
       <c r="F150" s="17"/>
-      <c r="G150" s="39"/>
-      <c r="H150" s="39"/>
-      <c r="I150" s="39"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30"/>
+      <c r="I150" s="30"/>
     </row>
     <row r="151" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="34"/>
-      <c r="C151" s="39"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="39"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
       <c r="F151" s="17"/>
-      <c r="G151" s="39"/>
-      <c r="H151" s="39"/>
-      <c r="I151" s="39"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="30"/>
+      <c r="I151" s="30"/>
     </row>
     <row r="152" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="34"/>
-      <c r="C152" s="39"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="39"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
       <c r="F152" s="17"/>
-      <c r="G152" s="39"/>
-      <c r="H152" s="39"/>
-      <c r="I152" s="39"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30"/>
     </row>
     <row r="153" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="34"/>
-      <c r="C153" s="39"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
       <c r="F153" s="17"/>
-      <c r="G153" s="39"/>
-      <c r="H153" s="39"/>
-      <c r="I153" s="39"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="30"/>
+      <c r="I153" s="30"/>
     </row>
     <row r="154" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="34"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30"/>
       <c r="F154" s="17"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="39"/>
-      <c r="I154" s="39"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="30"/>
+      <c r="I154" s="30"/>
     </row>
     <row r="155" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="34"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
       <c r="F155" s="17"/>
-      <c r="G155" s="39"/>
-      <c r="H155" s="39"/>
-      <c r="I155" s="39"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="30"/>
+      <c r="I155" s="30"/>
     </row>
     <row r="156" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="34"/>
-      <c r="C156" s="39"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="39"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
       <c r="F156" s="17"/>
-      <c r="G156" s="39"/>
-      <c r="H156" s="39"/>
-      <c r="I156" s="39"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="30"/>
     </row>
     <row r="157" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="34"/>
-      <c r="C157" s="39"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="39"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
       <c r="F157" s="17"/>
-      <c r="G157" s="39"/>
-      <c r="H157" s="39"/>
-      <c r="I157" s="39"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
+      <c r="I157" s="30"/>
     </row>
     <row r="158" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="34"/>
-      <c r="C158" s="39"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="39"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
       <c r="F158" s="17"/>
-      <c r="G158" s="39"/>
-      <c r="H158" s="39"/>
-      <c r="I158" s="39"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
     </row>
     <row r="159" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="34"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
       <c r="F159" s="17"/>
-      <c r="G159" s="39"/>
-      <c r="H159" s="39"/>
-      <c r="I159" s="39"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
     </row>
     <row r="160" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="34"/>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
       <c r="F160" s="17"/>
-      <c r="G160" s="39"/>
-      <c r="H160" s="39"/>
-      <c r="I160" s="39"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="30"/>
     </row>
     <row r="161" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="34"/>
-      <c r="C161" s="39"/>
-      <c r="D161" s="39"/>
-      <c r="E161" s="39"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
       <c r="F161" s="17"/>
-      <c r="G161" s="39"/>
-      <c r="H161" s="39"/>
-      <c r="I161" s="39"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
     </row>
     <row r="162" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="34"/>
-      <c r="C162" s="39"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="39"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
       <c r="F162" s="17"/>
-      <c r="G162" s="39"/>
-      <c r="H162" s="39"/>
-      <c r="I162" s="39"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
     </row>
     <row r="163" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="34"/>
-      <c r="C163" s="39"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="39"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
       <c r="F163" s="17"/>
-      <c r="G163" s="39"/>
-      <c r="H163" s="39"/>
-      <c r="I163" s="39"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="30"/>
+      <c r="I163" s="30"/>
     </row>
     <row r="164" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="34"/>
-      <c r="C164" s="39"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="39"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
       <c r="F164" s="17"/>
-      <c r="G164" s="39"/>
-      <c r="H164" s="39"/>
-      <c r="I164" s="39"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="30"/>
     </row>
     <row r="165" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="34"/>
-      <c r="C165" s="39"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
       <c r="F165" s="17"/>
-      <c r="G165" s="39"/>
-      <c r="H165" s="39"/>
-      <c r="I165" s="39"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="30"/>
+      <c r="I165" s="30"/>
     </row>
     <row r="166" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="34"/>
-      <c r="C166" s="39"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30"/>
       <c r="F166" s="17"/>
-      <c r="G166" s="39"/>
-      <c r="H166" s="39"/>
-      <c r="I166" s="39"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
+      <c r="I166" s="30"/>
     </row>
     <row r="167" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="34"/>
-      <c r="C167" s="39"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
       <c r="F167" s="17"/>
-      <c r="G167" s="39"/>
-      <c r="H167" s="39"/>
-      <c r="I167" s="39"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="30"/>
+      <c r="I167" s="30"/>
     </row>
     <row r="168" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="34"/>
-      <c r="C168" s="39"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="39"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30"/>
       <c r="F168" s="17"/>
-      <c r="G168" s="39"/>
-      <c r="H168" s="39"/>
-      <c r="I168" s="39"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30"/>
+      <c r="I168" s="30"/>
     </row>
     <row r="169" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="34"/>
-      <c r="C169" s="39"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="39"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
       <c r="F169" s="17"/>
-      <c r="G169" s="39"/>
-      <c r="H169" s="39"/>
-      <c r="I169" s="39"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="30"/>
+      <c r="I169" s="30"/>
     </row>
     <row r="170" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="34"/>
-      <c r="C170" s="39"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="39"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
       <c r="F170" s="17"/>
-      <c r="G170" s="39"/>
-      <c r="H170" s="39"/>
-      <c r="I170" s="39"/>
+      <c r="G170" s="30"/>
+      <c r="H170" s="30"/>
+      <c r="I170" s="30"/>
     </row>
     <row r="171" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="34"/>
-      <c r="C171" s="39"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
       <c r="F171" s="17"/>
-      <c r="G171" s="39"/>
-      <c r="H171" s="39"/>
-      <c r="I171" s="39"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
     </row>
     <row r="172" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="34"/>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
       <c r="F172" s="17"/>
-      <c r="G172" s="39"/>
-      <c r="H172" s="39"/>
-      <c r="I172" s="39"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="30"/>
+      <c r="I172" s="30"/>
     </row>
     <row r="173" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="34"/>
-      <c r="C173" s="39"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
       <c r="F173" s="17"/>
-      <c r="G173" s="39"/>
-      <c r="H173" s="39"/>
-      <c r="I173" s="39"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="30"/>
+      <c r="I173" s="30"/>
     </row>
     <row r="174" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="34"/>
-      <c r="C174" s="39"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="39"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30"/>
       <c r="F174" s="17"/>
-      <c r="G174" s="39"/>
-      <c r="H174" s="39"/>
-      <c r="I174" s="39"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="30"/>
+      <c r="I174" s="30"/>
     </row>
     <row r="175" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="34"/>
-      <c r="C175" s="39"/>
-      <c r="D175" s="39"/>
-      <c r="E175" s="39"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30"/>
       <c r="F175" s="17"/>
-      <c r="G175" s="39"/>
-      <c r="H175" s="39"/>
-      <c r="I175" s="39"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="30"/>
+      <c r="I175" s="30"/>
     </row>
     <row r="176" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="34"/>
-      <c r="C176" s="39"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="39"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
       <c r="F176" s="17"/>
-      <c r="G176" s="39"/>
-      <c r="H176" s="39"/>
-      <c r="I176" s="39"/>
+      <c r="G176" s="30"/>
+      <c r="H176" s="30"/>
+      <c r="I176" s="30"/>
     </row>
     <row r="177" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="34"/>
-      <c r="C177" s="39"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="39"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
       <c r="F177" s="17"/>
-      <c r="G177" s="39"/>
-      <c r="H177" s="39"/>
-      <c r="I177" s="39"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="30"/>
+      <c r="I177" s="30"/>
     </row>
     <row r="178" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="34"/>
-      <c r="C178" s="39"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="39"/>
+      <c r="B178" s="27"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
       <c r="F178" s="17"/>
-      <c r="G178" s="39"/>
-      <c r="H178" s="39"/>
-      <c r="I178" s="39"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
+      <c r="I178" s="30"/>
     </row>
     <row r="179" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="34"/>
-      <c r="C179" s="39"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="39"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
       <c r="F179" s="17"/>
-      <c r="G179" s="39"/>
-      <c r="H179" s="39"/>
-      <c r="I179" s="39"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="30"/>
+      <c r="I179" s="30"/>
     </row>
     <row r="180" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="34"/>
-      <c r="C180" s="39"/>
-      <c r="D180" s="39"/>
-      <c r="E180" s="39"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="30"/>
       <c r="F180" s="17"/>
-      <c r="G180" s="39"/>
-      <c r="H180" s="39"/>
-      <c r="I180" s="39"/>
+      <c r="G180" s="30"/>
+      <c r="H180" s="30"/>
+      <c r="I180" s="30"/>
     </row>
     <row r="181" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="34"/>
-      <c r="C181" s="39"/>
-      <c r="D181" s="39"/>
-      <c r="E181" s="39"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="30"/>
       <c r="F181" s="17"/>
-      <c r="G181" s="39"/>
-      <c r="H181" s="39"/>
-      <c r="I181" s="39"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="30"/>
     </row>
     <row r="182" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="34"/>
-      <c r="C182" s="39"/>
-      <c r="D182" s="39"/>
-      <c r="E182" s="39"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="30"/>
       <c r="F182" s="17"/>
-      <c r="G182" s="39"/>
-      <c r="H182" s="39"/>
-      <c r="I182" s="39"/>
+      <c r="G182" s="30"/>
+      <c r="H182" s="30"/>
+      <c r="I182" s="30"/>
     </row>
     <row r="183" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="34"/>
-      <c r="C183" s="39"/>
-      <c r="D183" s="39"/>
-      <c r="E183" s="39"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
+      <c r="E183" s="30"/>
       <c r="F183" s="17"/>
-      <c r="G183" s="39"/>
-      <c r="H183" s="39"/>
-      <c r="I183" s="39"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="30"/>
+      <c r="I183" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="29">
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:E6"/>
@@ -3158,6 +3143,7 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B1:I3"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45734EDD-01FD-4F9D-A426-B49E99DB96CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E38B328-C72F-4A89-B5C4-89F1C4ADDDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -465,12 +465,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -493,9 +487,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -506,22 +497,31 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,27 +549,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123050</xdr:colOff>
+      <xdr:colOff>139959</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>93305</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1391817</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>253619</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>629817</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>299446</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Hiển thị logo ok..jpg">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5241D6-C1E4-4981-A339-2AE6B25B7C52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9AA30B-EE5E-DEBE-594D-316F8E1BB5EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -580,42 +580,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="216356" y="93305"/>
-          <a:ext cx="1268767" cy="891213"/>
+          <a:off x="233265" y="54429"/>
+          <a:ext cx="1951653" cy="1364690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -923,7 +899,7 @@
   <dimension ref="A1:Q183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -943,179 +919,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28"/>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:17" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="4" spans="1:17" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:17" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="24" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="24" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="24" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="27"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A10" s="27"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1130,14 +1106,14 @@
       <c r="I10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A11" s="27"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1154,14 +1130,14 @@
       <c r="I11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:17" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="27"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1178,14 +1154,14 @@
       <c r="I12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="27"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A13" s="27"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1198,14 +1174,14 @@
       <c r="I13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="27"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A14" s="27"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1220,14 +1196,14 @@
       <c r="I14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="27"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A15" s="27"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1242,14 +1218,14 @@
       <c r="I15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:17" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A16" s="27"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1266,14 +1242,14 @@
       <c r="I16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A17" s="27"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1290,14 +1266,14 @@
       <c r="I17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="27"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A18" s="27"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1314,14 +1290,14 @@
       <c r="I18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="27"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A19" s="27"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1338,14 +1314,14 @@
       <c r="I19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="27"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1362,14 +1338,14 @@
       <c r="I20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="27"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1384,14 +1360,14 @@
       <c r="I21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1406,15 +1382,15 @@
       <c r="I22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1425,14 +1401,14 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="27"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A24" s="27"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="7" t="s">
         <v>32</v>
       </c>
@@ -1451,12 +1427,12 @@
       <c r="I24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="27"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A25" s="27"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
@@ -1475,12 +1451,12 @@
       <c r="I25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="27"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A26" s="27"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1499,12 +1475,12 @@
       <c r="I26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="27"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A27" s="27"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="7" t="s">
         <v>38</v>
       </c>
@@ -1519,15 +1495,15 @@
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="27"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1540,13 +1516,13 @@
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="27"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="13"/>
       <c r="F29" s="10"/>
       <c r="G29" s="6" t="s">
@@ -1554,15 +1530,15 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="27"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="A30" s="27"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1577,1558 +1553,1558 @@
       <c r="I30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="27"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
-      <c r="B31" s="33" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="27"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="27"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="27"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="27"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="27"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
     </row>
     <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
     </row>
     <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
     </row>
     <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
     </row>
     <row r="42" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="27"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="27"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
     </row>
     <row r="47" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="27"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="17"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
     </row>
     <row r="48" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="27"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="49" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="27"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
     </row>
     <row r="50" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="27"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
     </row>
     <row r="51" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="27"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="17"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
     </row>
     <row r="52" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="27"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
     </row>
     <row r="53" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="27"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
     </row>
     <row r="54" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="27"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
     </row>
     <row r="55" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="27"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
     </row>
     <row r="56" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="27"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="27"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
     </row>
     <row r="58" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="27"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
     </row>
     <row r="59" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="27"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
     </row>
     <row r="60" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="27"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
     </row>
     <row r="61" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="27"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
     </row>
     <row r="62" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="27"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
     </row>
     <row r="63" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="27"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
     </row>
     <row r="64" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="27"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="17"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
     </row>
     <row r="65" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="27"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="17"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
     </row>
     <row r="66" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="27"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
     </row>
     <row r="67" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="27"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
     </row>
     <row r="68" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="27"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
     </row>
     <row r="69" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="27"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
     </row>
     <row r="70" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="27"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
     </row>
     <row r="71" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="27"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
     </row>
     <row r="72" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="27"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
     </row>
     <row r="73" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="27"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
       <c r="F73" s="17"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
     </row>
     <row r="74" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="27"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
       <c r="F74" s="17"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
     </row>
     <row r="75" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="27"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
       <c r="F75" s="17"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
     </row>
     <row r="76" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="27"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
       <c r="F76" s="17"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
     </row>
     <row r="77" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="27"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="17"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
     </row>
     <row r="78" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="27"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
       <c r="F78" s="17"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
     </row>
     <row r="79" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="27"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
     </row>
     <row r="80" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="27"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
       <c r="F80" s="17"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
     </row>
     <row r="81" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="27"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
       <c r="F81" s="17"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
     </row>
     <row r="82" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="27"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
       <c r="F82" s="17"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
     </row>
     <row r="83" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="27"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="17"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
     </row>
     <row r="84" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="27"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
       <c r="F84" s="17"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
     </row>
     <row r="85" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="27"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
       <c r="F85" s="17"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
     </row>
     <row r="86" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="27"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
       <c r="F86" s="17"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
     </row>
     <row r="87" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="27"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
       <c r="F87" s="17"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
     </row>
     <row r="88" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="27"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
       <c r="F88" s="17"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
     </row>
     <row r="89" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="27"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
       <c r="F89" s="17"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
     </row>
     <row r="90" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="27"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
       <c r="F90" s="17"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
     </row>
     <row r="91" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="27"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
       <c r="F91" s="17"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
     </row>
     <row r="92" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="27"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
       <c r="F92" s="17"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
     </row>
     <row r="93" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="27"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
       <c r="F93" s="17"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
     </row>
     <row r="94" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="27"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
       <c r="F94" s="17"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
     </row>
     <row r="95" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="27"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
       <c r="F95" s="17"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
     </row>
     <row r="96" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="27"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
       <c r="F96" s="17"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
     </row>
     <row r="97" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="27"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
       <c r="F97" s="17"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
     </row>
     <row r="98" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="27"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
       <c r="F98" s="17"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
     </row>
     <row r="99" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="27"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
       <c r="F99" s="17"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
     </row>
     <row r="100" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="27"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
       <c r="F100" s="17"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
     </row>
     <row r="101" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="27"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
       <c r="F101" s="17"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
     </row>
     <row r="102" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="27"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
       <c r="F102" s="17"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="30"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
     </row>
     <row r="103" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="27"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
       <c r="F103" s="17"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
     </row>
     <row r="104" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="27"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
       <c r="F104" s="17"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
     </row>
     <row r="105" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="27"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
       <c r="F105" s="17"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
     </row>
     <row r="106" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="27"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
       <c r="F106" s="17"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
     </row>
     <row r="107" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="27"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
       <c r="F107" s="17"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
     </row>
     <row r="108" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="27"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
       <c r="F108" s="17"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
     </row>
     <row r="109" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="27"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
       <c r="F109" s="17"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
     </row>
     <row r="110" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="27"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
       <c r="F110" s="17"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
     </row>
     <row r="111" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="27"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
       <c r="F111" s="17"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="30"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
     </row>
     <row r="112" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="27"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
       <c r="F112" s="17"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
     </row>
     <row r="113" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="27"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
       <c r="F113" s="17"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
     </row>
     <row r="114" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="27"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
       <c r="F114" s="17"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="30"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
     </row>
     <row r="115" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="27"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
       <c r="F115" s="17"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
     </row>
     <row r="116" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="27"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
       <c r="F116" s="17"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="30"/>
-      <c r="I116" s="30"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
     </row>
     <row r="117" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="27"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
       <c r="F117" s="17"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="30"/>
-      <c r="I117" s="30"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
     </row>
     <row r="118" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="27"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
       <c r="F118" s="17"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="30"/>
-      <c r="I118" s="30"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
     </row>
     <row r="119" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="27"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
       <c r="F119" s="17"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="30"/>
-      <c r="I119" s="30"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
     </row>
     <row r="120" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="27"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
       <c r="F120" s="17"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
-      <c r="I120" s="30"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
     </row>
     <row r="121" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="27"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
       <c r="F121" s="17"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="30"/>
-      <c r="I121" s="30"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
     </row>
     <row r="122" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="27"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
       <c r="F122" s="17"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="30"/>
-      <c r="I122" s="30"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
     </row>
     <row r="123" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="27"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
       <c r="F123" s="17"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="30"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
     </row>
     <row r="124" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="27"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
       <c r="F124" s="17"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="30"/>
-      <c r="I124" s="30"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
     </row>
     <row r="125" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="27"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
       <c r="F125" s="17"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="30"/>
-      <c r="I125" s="30"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
     </row>
     <row r="126" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="27"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
       <c r="F126" s="17"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="30"/>
-      <c r="I126" s="30"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
     </row>
     <row r="127" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="27"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
       <c r="F127" s="17"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30"/>
-      <c r="I127" s="30"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
     </row>
     <row r="128" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="27"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
       <c r="F128" s="17"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="30"/>
-      <c r="I128" s="30"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
     </row>
     <row r="129" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="27"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
       <c r="F129" s="17"/>
-      <c r="G129" s="30"/>
-      <c r="H129" s="30"/>
-      <c r="I129" s="30"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
     </row>
     <row r="130" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="27"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="30"/>
-      <c r="E130" s="30"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
       <c r="F130" s="17"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="30"/>
-      <c r="I130" s="30"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
     </row>
     <row r="131" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="27"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="30"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
       <c r="F131" s="17"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="30"/>
-      <c r="I131" s="30"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
     </row>
     <row r="132" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="27"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
       <c r="F132" s="17"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="30"/>
-      <c r="I132" s="30"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
     </row>
     <row r="133" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="27"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
       <c r="F133" s="17"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="30"/>
-      <c r="I133" s="30"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
     </row>
     <row r="134" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="27"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
       <c r="F134" s="17"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="30"/>
-      <c r="I134" s="30"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
     </row>
     <row r="135" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="27"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
       <c r="F135" s="17"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="30"/>
-      <c r="I135" s="30"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
     </row>
     <row r="136" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="27"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
       <c r="F136" s="17"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="30"/>
-      <c r="I136" s="30"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
     </row>
     <row r="137" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="27"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
       <c r="F137" s="17"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30"/>
-      <c r="I137" s="30"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
     </row>
     <row r="138" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="27"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
       <c r="F138" s="17"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="30"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
     </row>
     <row r="139" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="27"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
       <c r="F139" s="17"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="30"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
     </row>
     <row r="140" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="27"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
       <c r="F140" s="17"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="30"/>
-      <c r="I140" s="30"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
     </row>
     <row r="141" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="27"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
       <c r="F141" s="17"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="30"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
     </row>
     <row r="142" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="27"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
       <c r="F142" s="17"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="30"/>
-      <c r="I142" s="30"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
     </row>
     <row r="143" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="27"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
       <c r="F143" s="17"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="30"/>
-      <c r="I143" s="30"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
     </row>
     <row r="144" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="27"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
       <c r="F144" s="17"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="30"/>
-      <c r="I144" s="30"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
     </row>
     <row r="145" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="27"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
       <c r="F145" s="17"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
-      <c r="I145" s="30"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
     </row>
     <row r="146" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="27"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
       <c r="F146" s="17"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
-      <c r="I146" s="30"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
     </row>
     <row r="147" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="27"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
       <c r="F147" s="17"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="30"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
     </row>
     <row r="148" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="27"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
       <c r="F148" s="17"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="30"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
     </row>
     <row r="149" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="27"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
       <c r="F149" s="17"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
-      <c r="I149" s="30"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
     </row>
     <row r="150" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="27"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="30"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
       <c r="F150" s="17"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="30"/>
-      <c r="I150" s="30"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
     </row>
     <row r="151" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="27"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
       <c r="F151" s="17"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="30"/>
-      <c r="I151" s="30"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
     </row>
     <row r="152" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="27"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
       <c r="F152" s="17"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="30"/>
-      <c r="I152" s="30"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
     </row>
     <row r="153" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="27"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="30"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
       <c r="F153" s="17"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="30"/>
-      <c r="I153" s="30"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
     </row>
     <row r="154" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="27"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
-      <c r="E154" s="30"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
       <c r="F154" s="17"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="30"/>
-      <c r="I154" s="30"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
     </row>
     <row r="155" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="27"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
       <c r="F155" s="17"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="30"/>
-      <c r="I155" s="30"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
     </row>
     <row r="156" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="27"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
       <c r="F156" s="17"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="30"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
     </row>
     <row r="157" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="27"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
       <c r="F157" s="17"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="30"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
     </row>
     <row r="158" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="27"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
       <c r="F158" s="17"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="30"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
     </row>
     <row r="159" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="27"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
       <c r="F159" s="17"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="30"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
     </row>
     <row r="160" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="27"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
       <c r="F160" s="17"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-      <c r="I160" s="30"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
     </row>
     <row r="161" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="27"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
       <c r="F161" s="17"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
-      <c r="I161" s="30"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
     </row>
     <row r="162" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="27"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
       <c r="F162" s="17"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
-      <c r="I162" s="30"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
     </row>
     <row r="163" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="27"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
       <c r="F163" s="17"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="30"/>
-      <c r="I163" s="30"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
     </row>
     <row r="164" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="27"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
-      <c r="E164" s="30"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
       <c r="F164" s="17"/>
-      <c r="G164" s="30"/>
-      <c r="H164" s="30"/>
-      <c r="I164" s="30"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
     </row>
     <row r="165" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="27"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
       <c r="F165" s="17"/>
-      <c r="G165" s="30"/>
-      <c r="H165" s="30"/>
-      <c r="I165" s="30"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
     </row>
     <row r="166" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="27"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="30"/>
-      <c r="E166" s="30"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
       <c r="F166" s="17"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="30"/>
-      <c r="I166" s="30"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
     </row>
     <row r="167" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="27"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="30"/>
-      <c r="E167" s="30"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
       <c r="F167" s="17"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="30"/>
-      <c r="I167" s="30"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
     </row>
     <row r="168" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="27"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
-      <c r="E168" s="30"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
       <c r="F168" s="17"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="30"/>
-      <c r="I168" s="30"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
     </row>
     <row r="169" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="27"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
       <c r="F169" s="17"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="30"/>
-      <c r="I169" s="30"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
     </row>
     <row r="170" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="27"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="30"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
       <c r="F170" s="17"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="30"/>
-      <c r="I170" s="30"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
     </row>
     <row r="171" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="27"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
       <c r="F171" s="17"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="30"/>
-      <c r="I171" s="30"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
     </row>
     <row r="172" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="27"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
       <c r="F172" s="17"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="30"/>
-      <c r="I172" s="30"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
     </row>
     <row r="173" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="27"/>
-      <c r="C173" s="30"/>
-      <c r="D173" s="30"/>
-      <c r="E173" s="30"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
       <c r="F173" s="17"/>
-      <c r="G173" s="30"/>
-      <c r="H173" s="30"/>
-      <c r="I173" s="30"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
     </row>
     <row r="174" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="27"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="30"/>
-      <c r="E174" s="30"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
       <c r="F174" s="17"/>
-      <c r="G174" s="30"/>
-      <c r="H174" s="30"/>
-      <c r="I174" s="30"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
     </row>
     <row r="175" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="27"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
-      <c r="E175" s="30"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
       <c r="F175" s="17"/>
-      <c r="G175" s="30"/>
-      <c r="H175" s="30"/>
-      <c r="I175" s="30"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="27"/>
     </row>
     <row r="176" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="27"/>
-      <c r="C176" s="30"/>
-      <c r="D176" s="30"/>
-      <c r="E176" s="30"/>
+      <c r="B176" s="25"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
       <c r="F176" s="17"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="30"/>
-      <c r="I176" s="30"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="27"/>
     </row>
     <row r="177" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="27"/>
-      <c r="C177" s="30"/>
-      <c r="D177" s="30"/>
-      <c r="E177" s="30"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
       <c r="F177" s="17"/>
-      <c r="G177" s="30"/>
-      <c r="H177" s="30"/>
-      <c r="I177" s="30"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
     </row>
     <row r="178" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="27"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
       <c r="F178" s="17"/>
-      <c r="G178" s="30"/>
-      <c r="H178" s="30"/>
-      <c r="I178" s="30"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
     </row>
     <row r="179" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="27"/>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
       <c r="F179" s="17"/>
-      <c r="G179" s="30"/>
-      <c r="H179" s="30"/>
-      <c r="I179" s="30"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
     </row>
     <row r="180" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="27"/>
-      <c r="C180" s="30"/>
-      <c r="D180" s="30"/>
-      <c r="E180" s="30"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
       <c r="F180" s="17"/>
-      <c r="G180" s="30"/>
-      <c r="H180" s="30"/>
-      <c r="I180" s="30"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
     </row>
     <row r="181" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="27"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
-      <c r="E181" s="30"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
       <c r="F181" s="17"/>
-      <c r="G181" s="30"/>
-      <c r="H181" s="30"/>
-      <c r="I181" s="30"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
     </row>
     <row r="182" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="27"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30"/>
-      <c r="E182" s="30"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
       <c r="F182" s="17"/>
-      <c r="G182" s="30"/>
-      <c r="H182" s="30"/>
-      <c r="I182" s="30"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
     </row>
     <row r="183" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="27"/>
-      <c r="C183" s="30"/>
-      <c r="D183" s="30"/>
-      <c r="E183" s="30"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
       <c r="F183" s="17"/>
-      <c r="G183" s="30"/>
-      <c r="H183" s="30"/>
-      <c r="I183" s="30"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -3143,7 +3119,7 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B1:I3"/>
+    <mergeCell ref="B1:I4"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF13D689-6A57-4FDD-938C-C4F97833BFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872EBA1B-383F-4B77-9ABB-12FEDEBF72C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -474,56 +474,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -900,7 +903,7 @@
   <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -923,78 +926,78 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
         <v>5</v>
@@ -1004,62 +1007,62 @@
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="10" t="s">
         <v>5</v>
       </c>
@@ -1072,15 +1075,15 @@
       <c r="I10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1099,10 +1102,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1121,10 +1124,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1139,10 +1142,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1159,10 +1162,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1179,10 +1182,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1201,10 +1204,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1223,10 +1226,10 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1245,10 +1248,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1267,10 +1270,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1289,10 +1292,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1309,10 +1312,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1329,11 +1332,11 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1346,10 +1349,10 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="7" t="s">
         <v>32</v>
       </c>
@@ -1370,8 +1373,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
@@ -1392,8 +1395,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1414,8 +1417,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="7" t="s">
         <v>38</v>
       </c>
@@ -1432,11 +1435,11 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1463,11 +1466,11 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1484,56 +1487,56 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="2:9" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
       <c r="F36" s="17"/>
@@ -1981,16 +1984,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="M7:O10"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B1:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B31:I35"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
@@ -2005,12 +2004,16 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B1:I4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="M7:O10"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872EBA1B-383F-4B77-9ABB-12FEDEBF72C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF13D689-6A57-4FDD-938C-C4F97833BFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -474,59 +474,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -903,7 +900,7 @@
   <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -926,78 +923,78 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="26" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="26" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
         <v>5</v>
@@ -1007,62 +1004,62 @@
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="26" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="26" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="39"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
         <v>5</v>
       </c>
@@ -1075,15 +1072,15 @@
       <c r="I10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>0</v>
@@ -1102,10 +1099,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>0</v>
@@ -1124,10 +1121,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
@@ -1142,10 +1139,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>0</v>
@@ -1162,10 +1159,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>0</v>
@@ -1182,10 +1179,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9">
         <v>0</v>
@@ -1204,10 +1201,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1226,10 +1223,10 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
         <v>0</v>
@@ -1248,10 +1245,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>0</v>
@@ -1270,10 +1267,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
         <v>0</v>
@@ -1292,10 +1289,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
@@ -1312,10 +1309,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
@@ -1332,11 +1329,11 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="13">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
@@ -1349,10 +1346,10 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="7" t="s">
         <v>32</v>
       </c>
@@ -1373,8 +1370,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
@@ -1395,8 +1392,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1417,8 +1414,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="7" t="s">
         <v>38</v>
       </c>
@@ -1435,11 +1432,11 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="13">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
@@ -1466,11 +1463,11 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="13">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
@@ -1487,56 +1484,56 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
     </row>
     <row r="35" spans="2:9" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
     </row>
     <row r="36" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
       <c r="F36" s="17"/>
@@ -1984,12 +1981,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="M7:O10"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:I9"/>
     <mergeCell ref="B31:I35"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
@@ -2004,16 +2005,12 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="M7:O10"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B1:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF13D689-6A57-4FDD-938C-C4F97833BFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C4FD50-3FF9-4CDA-BD72-1B34AB750C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -419,7 +419,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -437,9 +437,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -449,17 +446,8 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,56 +462,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -899,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -908,11 +917,11 @@
     <col min="1" max="1" width="1.2109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.2109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.0703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.0703125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="39" customWidth="1"/>
     <col min="6" max="6" width="10.78515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="52.0703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" style="39" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="8" style="1"/>
     <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
@@ -922,1075 +931,1071 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32" t="s">
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
+      <c r="H10" s="35">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10" t="s">
+      <c r="H13" s="35"/>
+      <c r="I13" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10" t="s">
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="35">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="H20" s="35">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="35">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="35">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="13">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="41">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="35">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10" t="s">
+      <c r="H24" s="35">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="35">
         <v>40000</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="H25" s="35">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="35">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="H26" s="35">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="35">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="13">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="41">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="10"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="10"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="13">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="41">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="2:9" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="F36" s="17"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F37" s="17"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F38" s="17"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F39" s="17"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F40" s="17"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F41" s="17"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F42" s="17"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F43" s="17"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F44" s="17"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F45" s="17"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F46" s="17"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F47" s="17"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F48" s="17"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F49" s="17"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F50" s="17"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F51" s="17"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F52" s="17"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F53" s="17"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F54" s="17"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F55" s="17"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F56" s="17"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F57" s="17"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F58" s="17"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F59" s="17"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="60" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F60" s="17"/>
+      <c r="F60" s="13"/>
     </row>
     <row r="61" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F61" s="17"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F62" s="17"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F63" s="17"/>
+      <c r="F63" s="13"/>
     </row>
     <row r="64" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F64" s="17"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F65" s="17"/>
+      <c r="F65" s="13"/>
     </row>
     <row r="66" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F66" s="17"/>
+      <c r="F66" s="13"/>
     </row>
     <row r="67" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F67" s="17"/>
+      <c r="F67" s="13"/>
     </row>
     <row r="68" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F68" s="17"/>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F69" s="17"/>
+      <c r="F69" s="13"/>
     </row>
     <row r="70" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F70" s="17"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F71" s="17"/>
+      <c r="F71" s="13"/>
     </row>
     <row r="72" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F72" s="17"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F73" s="17"/>
+      <c r="F73" s="13"/>
     </row>
     <row r="74" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F74" s="17"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F75" s="17"/>
+      <c r="F75" s="13"/>
     </row>
     <row r="76" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F76" s="17"/>
+      <c r="F76" s="13"/>
     </row>
     <row r="77" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F77" s="17"/>
+      <c r="F77" s="13"/>
     </row>
     <row r="78" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F78" s="17"/>
+      <c r="F78" s="13"/>
     </row>
     <row r="79" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F79" s="17"/>
+      <c r="F79" s="13"/>
     </row>
     <row r="80" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F80" s="17"/>
+      <c r="F80" s="13"/>
     </row>
     <row r="81" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F81" s="17"/>
+      <c r="F81" s="13"/>
     </row>
     <row r="82" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F82" s="17"/>
+      <c r="F82" s="13"/>
     </row>
     <row r="83" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F83" s="17"/>
+      <c r="F83" s="13"/>
     </row>
     <row r="84" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F84" s="17"/>
+      <c r="F84" s="13"/>
     </row>
     <row r="85" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F85" s="17"/>
+      <c r="F85" s="13"/>
     </row>
     <row r="86" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F86" s="17"/>
+      <c r="F86" s="13"/>
     </row>
     <row r="87" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F87" s="17"/>
+      <c r="F87" s="13"/>
     </row>
     <row r="88" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F88" s="17"/>
+      <c r="F88" s="13"/>
     </row>
     <row r="89" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F89" s="17"/>
+      <c r="F89" s="13"/>
     </row>
     <row r="90" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F90" s="17"/>
+      <c r="F90" s="13"/>
     </row>
     <row r="91" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F91" s="17"/>
+      <c r="F91" s="13"/>
     </row>
     <row r="92" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F92" s="17"/>
+      <c r="F92" s="13"/>
     </row>
     <row r="93" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F93" s="17"/>
+      <c r="F93" s="13"/>
     </row>
     <row r="94" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F94" s="17"/>
+      <c r="F94" s="13"/>
     </row>
     <row r="95" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F95" s="17"/>
+      <c r="F95" s="13"/>
     </row>
     <row r="96" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F96" s="17"/>
+      <c r="F96" s="13"/>
     </row>
     <row r="97" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F97" s="17"/>
+      <c r="F97" s="13"/>
     </row>
     <row r="98" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F98" s="17"/>
+      <c r="F98" s="13"/>
     </row>
     <row r="99" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F99" s="17"/>
+      <c r="F99" s="13"/>
     </row>
     <row r="100" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F100" s="17"/>
+      <c r="F100" s="13"/>
     </row>
     <row r="101" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F101" s="17"/>
+      <c r="F101" s="13"/>
     </row>
     <row r="102" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F102" s="17"/>
+      <c r="F102" s="13"/>
     </row>
     <row r="103" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F103" s="17"/>
+      <c r="F103" s="13"/>
     </row>
     <row r="104" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F104" s="17"/>
+      <c r="F104" s="13"/>
     </row>
     <row r="105" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F105" s="17"/>
+      <c r="F105" s="13"/>
     </row>
     <row r="106" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F106" s="17"/>
+      <c r="F106" s="13"/>
     </row>
     <row r="107" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F107" s="17"/>
+      <c r="F107" s="13"/>
     </row>
     <row r="108" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F108" s="17"/>
+      <c r="F108" s="13"/>
     </row>
     <row r="109" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F109" s="17"/>
+      <c r="F109" s="13"/>
     </row>
     <row r="110" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F110" s="17"/>
+      <c r="F110" s="13"/>
     </row>
     <row r="111" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F111" s="17"/>
+      <c r="F111" s="13"/>
     </row>
     <row r="112" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F112" s="17"/>
+      <c r="F112" s="13"/>
     </row>
     <row r="113" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F113" s="17"/>
+      <c r="F113" s="13"/>
     </row>
     <row r="114" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F114" s="17"/>
+      <c r="F114" s="13"/>
     </row>
     <row r="115" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F115" s="17"/>
+      <c r="F115" s="13"/>
     </row>
     <row r="116" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F116" s="17"/>
+      <c r="F116" s="13"/>
     </row>
     <row r="117" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F117" s="17"/>
+      <c r="F117" s="13"/>
     </row>
     <row r="118" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F118" s="17"/>
+      <c r="F118" s="13"/>
     </row>
     <row r="119" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F119" s="17"/>
+      <c r="F119" s="13"/>
     </row>
     <row r="120" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F120" s="17"/>
+      <c r="F120" s="13"/>
     </row>
     <row r="121" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F121" s="17"/>
+      <c r="F121" s="13"/>
     </row>
     <row r="122" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F122" s="17"/>
+      <c r="F122" s="13"/>
     </row>
     <row r="123" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F123" s="17"/>
+      <c r="F123" s="13"/>
     </row>
     <row r="124" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F124" s="17"/>
+      <c r="F124" s="13"/>
     </row>
     <row r="125" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F125" s="17"/>
+      <c r="F125" s="13"/>
     </row>
     <row r="126" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F126" s="17"/>
+      <c r="F126" s="13"/>
     </row>
     <row r="127" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F127" s="17"/>
+      <c r="F127" s="13"/>
     </row>
     <row r="128" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F128" s="17"/>
+      <c r="F128" s="13"/>
     </row>
     <row r="129" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F129" s="17"/>
+      <c r="F129" s="13"/>
     </row>
     <row r="130" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F130" s="17"/>
+      <c r="F130" s="13"/>
     </row>
     <row r="131" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F131" s="17"/>
+      <c r="F131" s="13"/>
     </row>
     <row r="132" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F132" s="17"/>
+      <c r="F132" s="13"/>
     </row>
     <row r="133" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F133" s="17"/>
+      <c r="F133" s="13"/>
     </row>
     <row r="134" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F134" s="17"/>
+      <c r="F134" s="13"/>
     </row>
     <row r="135" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F135" s="17"/>
+      <c r="F135" s="13"/>
     </row>
     <row r="136" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F136" s="17"/>
+      <c r="F136" s="13"/>
     </row>
     <row r="137" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F137" s="17"/>
+      <c r="F137" s="13"/>
     </row>
     <row r="138" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F138" s="17"/>
+      <c r="F138" s="13"/>
     </row>
     <row r="139" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F139" s="17"/>
+      <c r="F139" s="13"/>
     </row>
     <row r="140" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F140" s="17"/>
+      <c r="F140" s="13"/>
     </row>
     <row r="141" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F141" s="17"/>
+      <c r="F141" s="13"/>
     </row>
     <row r="142" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F142" s="17"/>
+      <c r="F142" s="13"/>
     </row>
     <row r="143" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F143" s="17"/>
+      <c r="F143" s="13"/>
     </row>
     <row r="144" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F144" s="17"/>
+      <c r="F144" s="13"/>
     </row>
     <row r="145" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F145" s="17"/>
+      <c r="F145" s="13"/>
     </row>
     <row r="146" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F146" s="17"/>
+      <c r="F146" s="13"/>
     </row>
     <row r="147" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F147" s="17"/>
+      <c r="F147" s="13"/>
     </row>
     <row r="148" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F148" s="17"/>
+      <c r="F148" s="13"/>
     </row>
     <row r="149" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F149" s="17"/>
+      <c r="F149" s="13"/>
     </row>
     <row r="150" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F150" s="17"/>
+      <c r="F150" s="13"/>
     </row>
     <row r="151" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F151" s="17"/>
+      <c r="F151" s="13"/>
     </row>
     <row r="152" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F152" s="17"/>
+      <c r="F152" s="13"/>
     </row>
     <row r="153" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F153" s="17"/>
+      <c r="F153" s="13"/>
     </row>
     <row r="154" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F154" s="17"/>
+      <c r="F154" s="13"/>
     </row>
     <row r="155" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F155" s="17"/>
+      <c r="F155" s="13"/>
     </row>
     <row r="156" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F156" s="17"/>
+      <c r="F156" s="13"/>
     </row>
     <row r="157" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F157" s="17"/>
+      <c r="F157" s="13"/>
     </row>
     <row r="158" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F158" s="17"/>
+      <c r="F158" s="13"/>
     </row>
     <row r="159" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F159" s="17"/>
+      <c r="F159" s="13"/>
     </row>
     <row r="160" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F160" s="17"/>
+      <c r="F160" s="13"/>
     </row>
     <row r="161" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F161" s="17"/>
+      <c r="F161" s="13"/>
     </row>
     <row r="162" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F162" s="17"/>
+      <c r="F162" s="13"/>
     </row>
     <row r="163" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F163" s="17"/>
+      <c r="F163" s="13"/>
     </row>
     <row r="164" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F164" s="17"/>
+      <c r="F164" s="13"/>
     </row>
     <row r="165" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F165" s="17"/>
+      <c r="F165" s="13"/>
     </row>
     <row r="166" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F166" s="17"/>
+      <c r="F166" s="13"/>
     </row>
     <row r="167" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F167" s="17"/>
+      <c r="F167" s="13"/>
     </row>
     <row r="168" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F168" s="17"/>
+      <c r="F168" s="13"/>
     </row>
     <row r="169" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F169" s="17"/>
+      <c r="F169" s="13"/>
     </row>
     <row r="170" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F170" s="17"/>
+      <c r="F170" s="13"/>
     </row>
     <row r="171" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F171" s="17"/>
+      <c r="F171" s="13"/>
     </row>
     <row r="172" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F172" s="17"/>
+      <c r="F172" s="13"/>
     </row>
     <row r="173" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F173" s="17"/>
+      <c r="F173" s="13"/>
     </row>
     <row r="174" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F174" s="17"/>
+      <c r="F174" s="13"/>
     </row>
     <row r="175" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F175" s="17"/>
+      <c r="F175" s="13"/>
     </row>
     <row r="176" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F176" s="17"/>
+      <c r="F176" s="13"/>
     </row>
     <row r="177" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F177" s="17"/>
+      <c r="F177" s="13"/>
     </row>
     <row r="178" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F178" s="17"/>
+      <c r="F178" s="13"/>
     </row>
     <row r="179" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F179" s="17"/>
+      <c r="F179" s="13"/>
     </row>
     <row r="180" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F180" s="17"/>
+      <c r="F180" s="13"/>
     </row>
     <row r="181" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F181" s="17"/>
+      <c r="F181" s="13"/>
     </row>
     <row r="182" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F182" s="17"/>
+      <c r="F182" s="13"/>
     </row>
     <row r="183" spans="6:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F183" s="17"/>
+      <c r="F183" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="M7:O10"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B1:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B31:I35"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
@@ -2005,12 +2010,16 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B1:I4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="M7:O10"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C4FD50-3FF9-4CDA-BD72-1B34AB750C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7445F2EF-0004-4B11-A7BD-650F3B7D3BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -419,7 +419,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -462,77 +462,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -908,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -917,7 +923,7 @@
     <col min="1" max="1" width="1.2109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.2109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.0703125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="26.0703125" style="18" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" style="39" customWidth="1"/>
     <col min="6" max="6" width="10.78515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="52.0703125" style="3" customWidth="1"/>
@@ -932,79 +938,79 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="22" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="22" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1013,85 +1019,85 @@
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="22" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="35"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="37">
         <v>0</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
     </row>
     <row r="11" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="35">
+      <c r="E11" s="37">
         <v>0</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1100,7 +1106,7 @@
       <c r="G11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="37">
         <v>0</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -1108,12 +1114,12 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="61.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="35">
+      <c r="E12" s="37">
         <v>0</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -1122,7 +1128,7 @@
       <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="37">
         <v>0</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -1130,30 +1136,30 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="35"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="35">
+      <c r="E14" s="37">
         <v>0</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -1162,18 +1168,18 @@
       <c r="G14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="35"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="35">
+      <c r="E15" s="37">
         <v>0</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1182,18 +1188,18 @@
       <c r="G15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="35">
+      <c r="E16" s="37">
         <v>0</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1202,7 +1208,7 @@
       <c r="G16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="37">
         <v>0</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -1210,12 +1216,12 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="35">
+      <c r="E17" s="37">
         <v>0</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -1224,7 +1230,7 @@
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="37">
         <v>0</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -1232,12 +1238,12 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="35">
+      <c r="E18" s="37">
         <v>0</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -1246,7 +1252,7 @@
       <c r="G18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="37">
         <v>0</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -1254,12 +1260,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="35">
+      <c r="E19" s="37">
         <v>0</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -1268,7 +1274,7 @@
       <c r="G19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="37">
         <v>0</v>
       </c>
       <c r="I19" s="9" t="s">
@@ -1276,12 +1282,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="35">
+      <c r="E20" s="37">
         <v>0</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -1290,7 +1296,7 @@
       <c r="G20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="37">
         <v>0</v>
       </c>
       <c r="I20" s="9" t="s">
@@ -1298,19 +1304,19 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="35"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="37">
         <v>0</v>
       </c>
       <c r="I21" s="9" t="s">
@@ -1318,19 +1324,19 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="35"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="37">
         <v>0</v>
       </c>
       <c r="I22" s="9" t="s">
@@ -1338,12 +1344,12 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="41">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="38">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
       </c>
@@ -1351,18 +1357,18 @@
         <v>5</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="36"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="40" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="37">
         <v>0</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -1371,7 +1377,7 @@
       <c r="G24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="37">
         <v>0</v>
       </c>
       <c r="I24" s="9" t="s">
@@ -1379,12 +1385,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="40" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="37">
         <v>40000</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -1393,7 +1399,7 @@
       <c r="G25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="37">
         <v>0</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -1401,12 +1407,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="40" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="37">
         <v>0</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -1415,7 +1421,7 @@
       <c r="G26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="37">
         <v>0</v>
       </c>
       <c r="I26" s="9" t="s">
@@ -1423,12 +1429,12 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="40" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="37">
         <v>0</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -1437,16 +1443,16 @@
       <c r="G27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="41">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="38">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
         <v>40000</v>
       </c>
@@ -1456,28 +1462,28 @@
       <c r="G28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="37"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="41"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="9"/>
       <c r="G29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="38"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="41">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="38">
         <f>+ROUND(E23-E28,0)</f>
         <v>-40000</v>
       </c>
@@ -1487,62 +1493,62 @@
       <c r="G30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="35"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
     </row>
     <row r="35" spans="2:9" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
       <c r="F36" s="13"/>
@@ -1990,12 +1996,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="M7:O10"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:I9"/>
     <mergeCell ref="B31:I35"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
@@ -2010,16 +2020,12 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="M7:O10"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B1:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/temp-peyroll-form/payroll-1.xlsx
+++ b/temp-peyroll-form/payroll-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Congty\thienphumut\test\thienphumut-hr-backend\temp-peyroll-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7445F2EF-0004-4B11-A7BD-650F3B7D3BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C91251-965C-46F1-95F9-1D30376AF706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{81214E9B-BDE1-47CB-8066-A0A8D69825C9}"/>
   </bookViews>
@@ -468,6 +468,51 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -494,51 +539,6 @@
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CC9D9C-B7CB-45C8-BF4C-397F94BA8378}">
   <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -924,10 +924,10 @@
     <col min="2" max="2" width="19.2109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="26.0703125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="22" customWidth="1"/>
     <col min="6" max="6" width="10.78515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="52.0703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" style="22" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="8" style="1"/>
     <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
@@ -938,79 +938,79 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="30.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="40"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1019,85 +1019,85 @@
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="40"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
     </row>
     <row r="8" spans="1:15" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="40"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
     </row>
     <row r="9" spans="1:15" ht="30.9" x14ac:dyDescent="0.35">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="37"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="20">
         <v>0</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="37">
+      <c r="E11" s="20">
         <v>0</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1106,7 +1106,7 @@
       <c r="G11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="20">
         <v>0</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -1117,9 +1117,9 @@
       <c r="B12" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="37">
+      <c r="E12" s="20">
         <v>0</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -1128,7 +1128,7 @@
       <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="20">
         <v>0</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -1136,30 +1136,30 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="37">
+      <c r="E14" s="20">
         <v>0</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -1168,18 +1168,18 @@
       <c r="G14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="37">
+      <c r="E15" s="20">
         <v>0</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1188,18 +1188,18 @@
       <c r="G15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="37"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="37">
+      <c r="E16" s="20">
         <v>0</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1208,7 +1208,7 @@
       <c r="G16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="20">
         <v>0</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -1216,12 +1216,12 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="37">
+      <c r="E17" s="20">
         <v>0</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -1230,7 +1230,7 @@
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="20">
         <v>0</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -1238,12 +1238,12 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="37">
+      <c r="E18" s="20">
         <v>0</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -1252,7 +1252,7 @@
       <c r="G18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="20">
         <v>0</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -1260,12 +1260,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="37">
+      <c r="E19" s="20">
         <v>0</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -1274,7 +1274,7 @@
       <c r="G19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="20">
         <v>0</v>
       </c>
       <c r="I19" s="9" t="s">
@@ -1282,12 +1282,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="37">
+      <c r="E20" s="20">
         <v>0</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -1296,7 +1296,7 @@
       <c r="G20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="20">
         <v>0</v>
       </c>
       <c r="I20" s="9" t="s">
@@ -1304,19 +1304,19 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="37"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="20">
         <v>0</v>
       </c>
       <c r="I21" s="9" t="s">
@@ -1324,19 +1324,19 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="37"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="20">
         <v>0</v>
       </c>
       <c r="I22" s="9" t="s">
@@ -1344,12 +1344,12 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="38">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="21">
         <f>+SUM(E10:E21)+SUM(H10:H21)</f>
         <v>0</v>
       </c>
@@ -1357,18 +1357,18 @@
         <v>5</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="41"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="20">
         <v>0</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -1377,7 +1377,7 @@
       <c r="G24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="20">
         <v>0</v>
       </c>
       <c r="I24" s="9" t="s">
@@ -1385,13 +1385,13 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="37">
-        <v>40000</v>
+      <c r="E25" s="20">
+        <v>0</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>5</v>
@@ -1399,7 +1399,7 @@
       <c r="G25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="20">
         <v>0</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -1407,12 +1407,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="20">
         <v>0</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -1421,7 +1421,7 @@
       <c r="G26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="20">
         <v>0</v>
       </c>
       <c r="I26" s="9" t="s">
@@ -1429,12 +1429,12 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="20">
         <v>0</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -1443,18 +1443,18 @@
       <c r="G27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="42"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="38">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="21">
         <f>+SUM(E24:E27)+SUM(H24:H27)</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>5</v>
@@ -1462,30 +1462,30 @@
       <c r="G28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="42"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="31.3" x14ac:dyDescent="0.35">
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="38"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="9"/>
       <c r="G29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" ht="31.3" x14ac:dyDescent="0.75">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="38">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="21">
         <f>+ROUND(E23-E28,0)</f>
-        <v>-40000</v>
+        <v>0</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>5</v>
@@ -1493,62 +1493,62 @@
       <c r="G30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="37"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="2:9" ht="176.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="2:9" ht="14.15" x14ac:dyDescent="0.35">
       <c r="F36" s="13"/>
@@ -1996,16 +1996,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="M7:O10"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B1:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="B31:I35"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
@@ -2020,12 +2016,16 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B1:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="M7:O10"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
